--- a/Dataset/Folds/Fold_2/Excel/43.xlsx
+++ b/Dataset/Folds/Fold_2/Excel/43.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6682" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8098" uniqueCount="1265">
   <si>
     <t>Doi</t>
   </si>
@@ -3916,6 +3916,713 @@
   </si>
   <si>
     <t>[Geehan%Suleyman%NULL%1,                           Raef A.%Fadel%NULL%1,                           Kelly M.%Malette%NULL%1,                           Charles%Hammond%NULL%1,                           Hafsa%Abdulla%NULL%1,                           Abigail%Entz%NULL%1,                           Zachary%Demertzis%NULL%1,                           Zachary%Hanna%NULL%1,                           Andrew%Failla%NULL%1,                           Carina%Dagher%NULL%0,                           Zohra%Chaudhry%NULL%2,                           Amit%Vahia%NULL%2,                           Odaliz%Abreu Lanfranco%NULL%1,                           Mayur%Ramesh%NULL%1,                           Marcus J.%Zervos%NULL%1,                           George%Alangaden%NULL%2,                           Joseph%Miller%NULL%2,                           Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,                            Chenchen%Qian%NULL%1,                            Zhibing%Luo%NULL%1,                            Qiang%Li%liqressh@hotmail.com%0,                            Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,                            Chunlin%Cai%NULL%1,                            Jinglei%Zang%NULL%1,                            Jun%Xie%NULL%1,                            Dan%Xu%NULL%0,                            Fang%Zheng%NULL%0,                            Tao%Zhan%NULL%1,                            Kang%Huang%NULL%1,                            Yikai%Wang%NULL%1,                            Xiao%Wang%NULL%1,                            Zhe-Yu%Hu%NULL%1,                            Yapeng%Deng%NULL%1,                            Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,                            Naofumi%Bunya%NULL%1,                            Tomoyuki%Endo%NULL%1,                            Yuji%Fujino%NULL%1,                            Kensuke%Fujita%NULL%1,                            Kenji%Fujizuka%NULL%1,                            Yoshihiro%Hagiwara%NULL%1,                            Jun%Hamaguchi%NULL%1,                            Yoshitaka%Hara%NULL%1,                            Eiji%Hashiba%NULL%1,                            Satoru%Hashimoto%NULL%1,                            Noriyuki%Hattori%NULL%1,                            Kota%Hoshino%NULL%1,                            Shinichi%Ijuin%NULL%1,                            Takanari%Ikeyama%NULL%1,                            Shingo%Ichiba%NULL%1,                            Wataru%Iwanaga%NULL%1,                            Yoshiaki%Iwashita%NULL%1,                            Masafumi%Kanamoto%NULL%1,                            Hitoshi%Kaneko%NULL%1,                            Kaneyuki%Kawamae%NULL%1,                            Toru%Kotani%NULL%1,                            Yasuaki%Koyama%NULL%1,                            Keibun%Liu%NULL%1,                            Tomohiko%Masuno%NULL%1,                            Naoto%Morimura%NULL%1,                            Tomoyuki%Nakamura%NULL%1,                            Masaki%Nakane%NULL%1,                            Michitaka%Nasu%NULL%1,                            Osamu%Nishida%NULL%1,                            Masaji%Nishimura%NULL%1,                            Kanae%Ochiai%NULL%1,                            Takayuki%Ogura%NULL%1,                            Shinichiro%Ohshimo%NULL%1,                            Keisuke%Oyama%NULL%1,                            Junichi%Sasaki%NULL%1,                            Ryutaro%Seo%NULL%1,                            Takeshi%Shimazu%NULL%1,                            Nobuaki%Shime%NULL%4,                            Keiki%Shimizu%NULL%1,                            Hiroyuki%Suzuki%NULL%1,                            Shuhei%Takauji%NULL%1,                            Shinhiro%Takeda%NULL%1,                            Ichiro%Takeuchi%NULL%2,                            Mumon%Takita%NULL%1,                            Hayato%Taniguchi%NULL%1,                            Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                            Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                            Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,                            Yi Xin%Tong%NULL%3,                            Sheng%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,                            Hong%Chen%NULL%0,                            Zhen%Li%NULL%2,                            Bo%Wang%NULL%0,                            Zhong-Wei%Zhang%NULL%1,                            Wei-Min%Li%NULL%0,                            Zong-An%Liang%NULL%0,                            Jin%Tang%NULL%1,                            Jian%Wang%NULL%1,                            Rui%Shi%NULL%1,                            Xiao-Dong%Jin%NULL%1,                            Yan%Kang%NULL%0,                            Pei-Fang%Wei%NULL%8,                            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,                            Chaisith%Sivakorn%NULL%1,                            Tanuwong%Viarasilpa%NULL%1,                            Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                            Mu%Qin%qinmuae@163.com%1,                            Yuli%Cai%NULL%1,                            Tao%Liu%NULL%0,                            Bo%Shen%NULL%1,                            Fan%Yang%NULL%2,                            Sheng%Cao%NULL%1,                            Xu%Liu%NULL%2,                            Xu%Liu%NULL%0,                            Yaozu%Xiang%NULL%1,                            Qinyan%Zhao%NULL%1,                            He%Huang%huanghe1977@whu.edu.cn%0,                            Bo%Yang%yybb112@whu.edu.cn%0,                            Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,                            Win%Kulvichit%NULL%1,                            Sunchai%Payungporn%NULL%1,                            Trairak%Pisitkun%NULL%1,                            Ariya%Chindamporn%NULL%1,                            Sadudee%Peerapornratana%NULL%1,                            Prapaporn%Pisitkun%NULL%1,                            Suwalak%Chitcharoen%NULL%1,                            Vorthon%Sawaswong%NULL%1,                            Navaporn%Worasilchai%NULL%1,                            Sarinya%Kampunya%NULL%1,                            Opass%Putcharoen%NULL%1,                            Thammasak%Thawitsri%NULL%1,                            Nophol%Leelayuwatanakul%NULL%1,                            Napplika%Kongpolprom%NULL%1,                            Vorakamol%Phoophiboon%NULL%1,                            Thitiwat%Sriprasart%NULL%1,                            Rujipat%Samransamruajkit%NULL%1,                            Somkanya%Tungsanga%NULL%1,                            Kanitha%Tiankanon%NULL%1,                            Nuttha%Lumlertgul%NULL%1,                            Asada%Leelahavanichkul%NULL%1,                            Tueboon%Sriphojanart%NULL%1,                            Terapong%Tantawichien%NULL%1,                            Usa%Thisyakorn%NULL%1,                            Chintana%Chirathaworn%NULL%1,                            Kearkiat%Praditpornsilpa%NULL%1,                            Kriang%Tungsanga%NULL%1,                            Somchai%Eiam-Ong%NULL%1,                            Visith%Sitprija%NULL%1,                            John A.%Kellum%NULL%1,                            Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                            Min%Pan%NULL%3,                            Xiumei%Zhang%NULL%3,                            Mingfeng%Han%fyhmf@163.com%5,                            Xiaoyun%Fan%13956988552@126.com%3,                            Fengde%Zhao%NULL%3,                            Manli%Miao%NULL%3,                            Jing%Xu%NULL%0,                            Minglong%Guan%NULL%3,                            Xia%Deng%NULL%3,                            Xu%Chen%NULL%4,                            Leilei%Shen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%1,                            Chunli%Tang%NULL%0,                            Ruchong%Chen%NULL%1,                            Honglian%Ruan%NULL%1,                            Wenhua%Liang%NULL%0,                            Weijie%Guan%NULL%0,                            Ling%Sang%NULL%0,                            Ruidi%Tang%NULL%1,                            Nanshan%Zhong%NULL%0,                            Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                            Yuan%Yu%NULL%5,                            Jiqian%Xu%NULL%0,                            Huaqing%Shu%NULL%5,                            Jia'an%Xia%NULL%0,                            Hong%Liu%NULL%5,                            Yongran%Wu%NULL%0,                            Lu%Zhang%NULL%5,                            Zhui%Yu%NULL%0,                            Minghao%Fang%NULL%0,                            Ting%Yu%NULL%0,                            Yaxin%Wang%NULL%5,                            Shangwen%Pan%NULL%5,                            Xiaojing%Zou%NULL%7,                            Shiying%Yuan%NULL%0,                            You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,                            Shanyan%Zhang%NULL%2,                            Xiaoli%Zhang%NULL%1,                            Huan%Cai%NULL%2,                            Jueqing%Gu%NULL%2,                            Jiangshan%Lian%NULL%2,                            Yingfeng%Lu%NULL%2,                            Hongyu%Jia%NULL%2,                            Jianhua%Hu%NULL%2,                            Ciliang%Jin%NULL%2,                            Guodong%Yu%NULL%2,                            Yimin%Zhang%NULL%2,                            Jifang%Sheng%NULL%4,                            Yida%Yang%yidayang65@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                            Dan%Xu%NULL%0,                            Shouzhi%Fu%NULL%0,                            Jun%Zhang%NULL%0,                            Xiaobo%Yang%NULL%0,                            Liang%Xu%NULL%0,                            Jiqian%Xu%NULL%0,                            Yongran%Wu%NULL%0,                            Chaolin%Huang%NULL%0,                            Yaqi%Ouyang%NULL%0,                            Luyu%Yang%NULL%0,                            Minghao%Fang%NULL%0,                            Hongwen%Xiao%NULL%0,                            Jing%Ma%NULL%0,                            Wei%Zhu%NULL%0,                            Song%Hu%NULL%0,                            Quan%Hu%NULL%0,                            Daoyin%Ding%NULL%0,                            Ming%Hu%NULL%0,                            Guochao%Zhu%NULL%0,                            Weijiang%Xu%NULL%0,                            Jun%Guo%NULL%0,                            Jinglong%Xu%NULL%0,                            Haitao%Yuan%NULL%0,                            Bin%Zhang%NULL%0,                            Zhui%Yu%yuzhui@whu.edu.cn%0,                            Dechang%Chen%icudechangchen@163.com%0,                            Shiying%Yuan%yuan_shiying@163.com%0,                            You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,                            Hao-Yu%Gao%NULL%1,                            Zi-Yi%Feng%NULL%1,                            Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,                            Li-jun%Sun%NULL%1,                            Mi%Xu%NULL%1,                            Jian%Pan%NULL%1,                            Yun-tao%Zhang%NULL%1,                            Xue-ling%Fang%NULL%1,                            Qiang%Fang%NULL%2,                            Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,                            Ziqiang%Du%NULL%1,                            Yanfang%Zhu%NULL%1,                            Wenfeng%Li%NULL%1,                            Hongjun%Miao%NULL%1,                            Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,                            Sarah%Al-Youha%sarahalyouha@gmail.com%1,                            Mohammad H.%Jamal%NULL%1,                            Mohannad%Al-Haddad%NULL%1,                            Ali%Al-Muhaini%NULL%1,                            Fahad%Al-Ghimlas%NULL%1,                            Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,                            Mina%Akbari Rad%NULL%1,                            Robert%Bergquist%NULL%1,                            Abolghasem%Allahyari%NULL%1,                            Kamila%Hashemzadeh%NULL%1,                            Nasrin%Milani%NULL%1,                            Mahdi%Gholian-Aval%NULL%1,                            Fariba%Rezaeitalab%NULL%1,                            Mohammad Jafar%Sadeghi Quchani%NULL%1,                            Zahra%Nahbandani%NULL%1,                            Mandana%Khodashahi%NULL%1,                            Zahra%Javid%NULL%1,                            Mahnaz%Mozdourian%NULL%1,                            Mohammad Ali%Yaghoubi%NULL%1,                            Zahra%Mozaheb%NULL%1,                            Mohsen%Seddigh-Shamsi%NULL%1,                            Mohammad%Moeini Nodeh%NULL%1,                            Shima%Nabavi%NULL%1,                            Hooman%Mosannen Mozaffari%NULL%1,                            Mohammadreza%Farzanehfar%NULL%1,                            Zahra%Lotfi%NULL%1,                            Alireza%Shariati%NULL%1,                            Shekoofe%Bonakdaran%NULL%1,                            Zahra%Rezaieyazdi%NULL%1,                            Zahra%Mirfeizi%NULL%1,                            Maryam%Miri%NULL%1,                            Reza%Bassiri%NULL%1,                            Sajjad%Ataei Azimi%NULL%1,                            Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,                            Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,                            Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,                            Ibrahim%Al-Zakwani%NULL%1,                            Hamed%Al Naamani%NULL%1,                            Sultan%Al Lawati%NULL%1,                            Nenad%Pandak%NULL%1,                            Muna Ba%Omar%NULL%1,                            Maher%Al Bahrani%NULL%1,                            Zakaryia AL%Bulushi%NULL%1,                            Huda%Al Khalili%NULL%1,                            Issa%Al Salmi%NULL%1,                            Ruwaida%Al Ismaili%NULL%1,                            Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,                            Zohre%Khodamoradi%NULL%1,                            Amirhossein%Erfani%NULL%1,                            Hamidreza%Hosseinpour%NULL%1,                            Keivan%Ranjbar%NULL%1,                            Yasaman%Emami%NULL%1,                            Alireza%Mirahmadizadeh%NULL%1,                            Mehrzad%Lotfi%NULL%1,                            Babak%Shirazi Yeganeh%NULL%1,                            Abolfazl%Dorrani Nejad%NULL%1,                            Abdolrasool%Hemmati%NULL%1,                            Mostafa%Ebrahimi%NULL%1,                            Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,                            Annachiara%Ferrari%NULL%2,                            Annachiara%Ferrari%NULL%0,                            Francesco%Fontana%NULL%1,                            Giacomo%Mori%NULL%1,                            Riccardo%Magistroni%NULL%1,                            Marianna%Meschiari%NULL%1,                            Erica%Franceschini%NULL%1,                            Marianna%Menozzi%NULL%1,                            Gianluca%Cuomo%NULL%1,                            Gabriella%Orlando%NULL%1,                            Antonella%Santoro%NULL%1,                            Margherita%Digaetano%NULL%1,                            Cinzia%Puzzolante%NULL%1,                            Federica%Carli%NULL%1,                            Andrea%Bedini%NULL%1,                            Jovana%Milic%NULL%1,                            Irene%Coloretti%NULL%1,                            Paolo%Raggi%NULL%1,                            Cristina%Mussini%NULL%1,                            Massimo%Girardis%NULL%1,                            Gianni%Cappelli%NULL%1,                            Giovanni%Guaraldi%NULL%1,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,                            Silvia%Bettini%NULL%2,                            Silvia%Bettini%NULL%0,                            Roberto%Fabris%NULL%1,                            Roberto%Serra%NULL%2,                            Chiara%Dal Pra%NULL%1,                            Pietro%Maffei%NULL%1,                            Marco%Rossato%NULL%1,                            Paola%Fioretto%NULL%0,                            Roberto%Vettor%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,                            Marco%Roncador%NULL%2,                            Marco%Roncador%NULL%0,                            Andrea%Saporito%NULL%1,                            Maira%Biggiogero%NULL%1,                            Andrea%Glotta%NULL%1,                            Pier Andrea%Maida%NULL%1,                            Patrizia%Urso%NULL%1,                            Giovanni%Bona%NULL%1,                            Christian%Garzoni%NULL%1,                            Romano%Mauri%NULL%1,                            Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,                            Anna Lisa%Ridolfo%NULL%4,                            Laura%Milazzo%NULL%2,                            Letizia%Oreni%NULL%4,                            Dario%Bernacchia%NULL%4,                            Matteo%Siano%NULL%4,                            Cecilia%Bonazzetti%NULL%2,                            Alice%Covizzi%NULL%2,                            Marco%Schiuma%NULL%2,                            Matteo%Passerini%NULL%2,                            Marco%Piscaglia%NULL%2,                            Massimo%Coen%NULL%2,                            Guido%Gubertini%NULL%2,                            Giuliano%Rizzardini%NULL%4,                            Chiara%Cogliati%NULL%2,                            Anna Maria%Brambilla%NULL%2,                            Riccardo%Colombo%NULL%2,                            Antonio%Castelli%NULL%2,                            Roberto%Rech%NULL%2,                            Agostino%Riva%NULL%2,                            Alessandro%Torre%NULL%2,                            Luca%Meroni%NULL%2,                            Stefano%Rusconi%NULL%4,                            Spinello%Antinori%NULL%4,                            Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,                            Lara%Gianesello%gianesello.lara@libero.it%1,                            Maddalena%Pazzi%NULL%2,                            Maddalena%Pazzi%NULL%0,                            Caterina%Stera%NULL%1,                            Tommaso%Meconi%NULL%1,                            Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,                            Andrea%Dalbeni%NULL%2,                            Andrea%Dalbeni%NULL%0,                            Elia%Vettore%NULL%2,                            Elia%Vettore%NULL%0,                            Devis%Benfaremo%NULL%1,                            Massimo%Mattioli%NULL%1,                            Carmine G.%Gambino%NULL%1,                            Viviana%Framba%NULL%2,                            Viviana%Framba%NULL%0,                            Lorenzo%Cerruti%NULL%1,                            Anna%Mantovani%NULL%1,                            Andrea%Martini%NULL%1,                            Michele M.%Luchetti%NULL%1,                            Roberto%Serra%NULL%0,                            Annamaria%Cattelan%NULL%1,                            Roberto%Vettor%NULL%0,                            Paolo%Angeli%NULL%1,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,                            Matthaios%Papadimitriou-Olivgeris%NULL%2,                            Matthaios%Papadimitriou-Olivgeris%NULL%0,                            Raphaël%Burger%NULL%1,                            Marie-Annick%Le Pogam%NULL%1,                            Tapio%Niemi%NULL%2,                            Tapio%Niemi%NULL%0,                            Paraskevas%Filippidis%NULL%1,                            Jonathan%Tschopp%NULL%1,                            Florian%Desgranges%NULL%1,                            Benjamin%Viala%NULL%1,                            Eleftheria%Kampouri%NULL%1,                            Laurence%Rochat%NULL%2,                            Laurence%Rochat%NULL%0,                            David%Haefliger%NULL%1,                            Mehdi%Belkoniene%NULL%1,                            Carlos%Fidalgo%NULL%1,                            Antonios%Kritikos%NULL%1,                            Katia%Jaton%NULL%1,                            Laurence%Senn%NULL%1,                            Pierre-Alexandre%Bart%NULL%1,                            Jean-Luc%Pagani%NULL%2,                            Jean-Luc%Pagani%NULL%0,                            Oriol%Manuel%NULL%1,                            Loïc%Lhopitallier%NULL%1,                            Chiara%Lazzeri%NULL%2,                            Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,                            Ashwin%Subramaniam%NULL%2,                            Ashwin%Subramaniam%NULL%0,                            Mallikarjuna%Ponnapa Reddy%NULL%2,                            Mallikarjuna%Ponnapa Reddy%NULL%0,                            Gabriel%Blecher%NULL%1,                            Umesh%Kadam%NULL%2,                            Umesh%Kadam%NULL%0,                            Afsana%Afroz%NULL%1,                            Baki%Billah%NULL%1,                            Sushma%Ashwin%NULL%1,                            Mark%Kubicki%NULL%1,                            Federico%Bilotta%NULL%1,                            J. Randall%Curtis%NULL%2,                            J. Randall%Curtis%NULL%0,                            Francesca%Rubulotta%NULL%2,                            Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                            Samuel L%Bruce%NULL%2,                            Cody L%Slater%NULL%2,                            Jonathan R%Tiao%NULL%2,                            Matthew R%Baldwin%NULL%3,                            R Graham%Barr%NULL%2,                            Bernard P%Chang%NULL%2,                            Katherine H%Chau%NULL%2,                            Justin J%Choi%NULL%2,                            Nicholas%Gavin%NULL%2,                            Parag%Goyal%NULL%2,                            Angela M%Mills%NULL%2,                            Ashmi A%Patel%NULL%2,                            Marie-Laure S%Romney%NULL%2,                            Monika M%Safford%NULL%2,                            Neil W%Schluger%NULL%2,                            Soumitra%Sengupta%NULL%2,                            Magdalena E%Sobieszczyk%NULL%2,                            Jason E%Zucker%NULL%2,                            Paul A%Asadourian%NULL%2,                            Fletcher M%Bell%NULL%2,                            Rebekah%Boyd%NULL%2,                            Matthew F%Cohen%NULL%2,                            MacAlistair I%Colquhoun%NULL%2,                            Lucy A%Colville%NULL%2,                            Joseph H%de Jonge%NULL%2,                            Lyle B%Dershowitz%NULL%2,                            Shirin A%Dey%NULL%2,                            Katherine A%Eiseman%NULL%2,                            Zachary P%Girvin%NULL%2,                            Daniella T%Goni%NULL%2,                            Amro A%Harb%NULL%2,                            Nicholas%Herzik%NULL%2,                            Sarah%Householder%NULL%2,                            Lara E%Karaaslan%NULL%2,                            Heather%Lee%NULL%2,                            Evan%Lieberman%NULL%2,                            Andrew%Ling%NULL%2,                            Ree%Lu%NULL%2,                            Arthur Y%Shou%NULL%2,                            Alexander C%Sisti%NULL%2,                            Zachary E%Snow%NULL%2,                            Colin P%Sperring%NULL%2,                            Yuqing%Xiong%NULL%2,                            Henry W%Zhou%NULL%2,                            Karthik%Natarajan%NULL%2,                            George%Hripcsak%NULL%2,                            Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                            Mark%Caridi-Scheible%NULL%3,                            James M.%Blum%NULL%2,                            Chad%Robichaux%NULL%2,                            Colleen%Kraft%NULL%2,                            Jesse T.%Jacob%NULL%2,                            Craig S.%Jabaley%NULL%2,                            David%Carpenter%NULL%2,                            Roberta%Kaplow%NULL%2,                            Alfonso C.%Hernandez-Romieu%NULL%2,                            Max W.%Adelman%NULL%2,                            Greg S.%Martin%NULL%2,                            Craig M.%Coopersmith%NULL%2,                            David J.%Murphy%NULL%2,                            NULL%NULL%NULL%0,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                            Bijan J.%Ghassemieh%NULL%0,                            Michelle%Nichols%NULL%0,                            Richard%Kim%NULL%0,                            Keith R.%Jerome%NULL%0,                            Arun K.%Nalla%NULL%0,                            Alexander L.%Greninger%NULL%0,                            Sudhakar%Pipavath%NULL%0,                            Mark M.%Wurfel%NULL%0,                            Laura%Evans%NULL%0,                            Patricia A.%Kritek%NULL%0,                            T. Eoin%West%NULL%0,                            Andrew%Luks%NULL%0,                            Anthony%Gerbino%NULL%0,                            Chris R.%Dale%NULL%0,                            Jason D.%Goldman%NULL%0,                            Shane%O’Mahony%NULL%0,                            Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                            Denise J%McCulloch%NULL%0,                            Denise J%McCulloch%NULL%0,                            Vidya%Atluri%NULL%0,                            Michela%Blain%NULL%0,                            Sarah A%McGuffin%NULL%0,                            Arun K%Nalla%NULL%0,                            Meei-Li%Huang%NULL%0,                            Alex L%Greninger%NULL%0,                            Keith R%Jerome%NULL%0,                            Seth A%Cohen%NULL%0,                            Santiago%Neme%NULL%0,                            Margaret L%Green%NULL%0,                            Helen Y%Chu%NULL%0,                            H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,                            Joelle I.%Rosser%NULL%0,                            Orlando%Quintero%NULL%0,                            Jake%Scott%NULL%0,                            Aruna%Subramanian%NULL%0,                            Mohammad%Gumma%NULL%0,                            Angela%Rogers%NULL%0,                            Shanthi%Kappagoda%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,                            Jacob%Fiksel%NULL%2,                            Jacob%Fiksel%NULL%0,                            John%Muschelli%NULL%2,                            John%Muschelli%NULL%0,                            Matthew L.%Robinson%NULL%2,                            Matthew L.%Robinson%NULL%0,                            Masoud%Rouhizadeh%NULL%2,                            Masoud%Rouhizadeh%NULL%0,                            Jamie%Perin%NULL%2,                            Jamie%Perin%NULL%0,                            Grant%Schumock%NULL%2,                            Grant%Schumock%NULL%0,                            Paul%Nagy%NULL%2,                            Paul%Nagy%NULL%0,                            Josh H.%Gray%NULL%2,                            Josh H.%Gray%NULL%0,                            Harsha%Malapati%NULL%2,                            Harsha%Malapati%NULL%0,                            Mariam%Ghobadi-Krueger%NULL%2,                            Mariam%Ghobadi-Krueger%NULL%0,                            Timothy M.%Niessen%NULL%1,                            Bo Soo%Kim%NULL%1,                            Peter M.%Hill%NULL%1,                            M. Shafeeq%Ahmed%NULL%1,                            Eric D.%Dobkin%NULL%1,                            Renee%Blanding%NULL%1,                            Jennifer%Abele%NULL%1,                            Bonnie%Woods%NULL%1,                            Kenneth%Harkness%NULL%1,                            David R.%Thiemann%NULL%1,                            Mary G.%Bowring%NULL%1,                            Aalok B.%Shah%NULL%2,                            Aalok B.%Shah%NULL%0,                            Mei-Cheng%Wang%NULL%1,                            Karen%Bandeen-Roche%NULL%1,                            Antony%Rosen%NULL%1,                            Scott L.%Zeger%NULL%2,                            Scott L.%Zeger%NULL%0,                            Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                            Justin J.%Choi%NULL%0,                            Laura C.%Pinheiro%NULL%0,                            Edward J.%Schenck%NULL%0,                            Ruijun%Chen%NULL%0,                            Assem%Jabri%NULL%0,                            Michael J.%Satlin%NULL%0,                            Thomas R.%Campion%NULL%0,                            Musarrat%Nahid%NULL%0,                            Joanna B.%Ringel%NULL%0,                            Katherine L.%Hoffman%NULL%0,                            Mark N.%Alshak%NULL%0,                            Han A.%Li%NULL%0,                            Graham T.%Wehmeyer%NULL%0,                            Graham T.%Wehmeyer%NULL%0,                            Mangala%Rajan%NULL%0,                            Evgeniya%Reshetnyak%NULL%0,                            Nathaniel%Hupert%NULL%0,                            Evelyn M.%Horn%NULL%0,                            Fernando J.%Martinez%NULL%0,                            Roy M.%Gulick%NULL%0,                            Monika M.%Safford%NULL%0,                            Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                            Simon A%Jones%NULL%0,                            Jie%Yang%NULL%0,                            Harish%Rajagopalan%NULL%0,                            Luke%O’Donnell%NULL%0,                            Yelena%Chernyak%NULL%0,                            Katie A%Tobin%NULL%0,                            Robert J%Cerfolio%NULL%0,                            Fritz%Francois%NULL%0,                            Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                            Anatoly%Mitrokhin%NULL%2,                            Anatoly%Mitrokhin%NULL%0,                            Ajai%Rajabalan%NULL%1,                            Christian%Benjamin%NULL%1,                            Sushma%Raviralla%NULL%1,                            Vishnu R%Mani%vishnu.mani@duke.edu%2,                            Vishnu R%Mani%vishnu.mani@duke.edu%0,                            Aleksandr%Kalabin%NULL%2,                            Aleksandr%Kalabin%NULL%0,                            Sebastian C%Valdivieso%NULL%2,                            Sebastian C%Valdivieso%NULL%0,                            Max%Murray-Ramcharan%NULL%2,                            Max%Murray-Ramcharan%NULL%0,                            Brian%Donaldson%NULL%2,                            Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,                            Damianos G.%Kokkinidis%NULL%1,                            Weijia%Li%NULL%1,                            Dimitrios%Karamanis%NULL%1,                            Jennifer%Ognibene%NULL%1,                            Shitij%Arora%NULL%1,                            William N.%Southern%NULL%1,                            Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,                            Jesus D.%Gonzalez-Lugo%NULL%1,                            Shafia%Rahman%NULL%1,                            Mohammad%Barouqa%NULL%1,                            James%Szymanski%NULL%1,                            Kenji%Ikemura%NULL%1,                            Yungtai%Lo%NULL%1,                            Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,                            Viet-Thi%Tran%NULL%4,                            Viet-Thi%Tran%NULL%0,                            Mathilde%Roumier%NULL%2,                            Amélie%Chabrol%NULL%2,                            Romain%Paule%NULL%2,                            Constance%Guillaud%NULL%2,                            Elena%Fois%NULL%2,                            Raphael%Lepeule%NULL%2,                            Tali-Anne%Szwebel%NULL%2,                            François-Xavier%Lescure%NULL%2,                            Frédéric%Schlemmer%NULL%2,                            Marie%Matignon%NULL%2,                            Mehdi%Khellaf%NULL%2,                            Etienne%Crickx%NULL%2,                            Benjamin%Terrier%NULL%2,                            Caroline%Morbieu%NULL%2,                            Paul%Legendre%NULL%2,                            Julien%Dang%NULL%2,                            Yoland%Schoindre%NULL%2,                            Jean-Michel%Pawlotsky%NULL%2,                            Marc%Michel%NULL%2,                            Elodie%Perrodeau%NULL%2,                            Nicolas%Carlier%NULL%2,                            Nicolas%Roche%NULL%2,                            Victoire%de Lastours%NULL%2,                            Clément%Ourghanlian%NULL%2,                            Solen%Kerneis%NULL%2,                            Philippe%Ménager%NULL%2,                            Luc%Mouthon%NULL%2,                            Etienne%Audureau%NULL%2,                            Philippe%Ravaud%NULL%2,                            Bertrand%Godeau%NULL%2,                            Sébastien%Gallien%NULL%2,                            Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,                          Yu%Zuo%NULL%1,                          Srilakshmi%Yalavarthi%NULL%1,                          Kelsey%Gockman%NULL%1,                          Melanie%Zuo%NULL%1,                          Jacqueline A%Madison%NULL%1,                          Christopher%Blair%NULL%1,                          Wrenn%Woodward%NULL%1,                          Sean P%Lezak%NULL%1,                          Njira L%Lugogo%NULL%1,                          Robert J%Woods%NULL%1,                          Christian%Lood%NULL%1,                          Jason S%Knight%NULL%2,                          Jason S%Knight%NULL%0,                          Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,                            Raef A.%Fadel%NULL%1,                            Kelly M.%Malette%NULL%1,                            Charles%Hammond%NULL%1,                            Hafsa%Abdulla%NULL%1,                            Abigail%Entz%NULL%1,                            Zachary%Demertzis%NULL%1,                            Zachary%Hanna%NULL%1,                            Andrew%Failla%NULL%1,                            Carina%Dagher%NULL%0,                            Zohra%Chaudhry%NULL%2,                            Amit%Vahia%NULL%2,                            Odaliz%Abreu Lanfranco%NULL%1,                            Mayur%Ramesh%NULL%1,                            Marcus J.%Zervos%NULL%1,                            George%Alangaden%NULL%2,                            Joseph%Miller%NULL%2,                            Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,                             Chenchen%Qian%NULL%1,                             Zhibing%Luo%NULL%1,                             Qiang%Li%liqressh@hotmail.com%1,                             Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,                             Chunlin%Cai%NULL%1,                             Jinglei%Zang%NULL%1,                             Jun%Xie%NULL%1,                             Dan%Xu%NULL%0,                             Fang%Zheng%NULL%0,                             Tao%Zhan%NULL%1,                             Kang%Huang%NULL%1,                             Yikai%Wang%NULL%1,                             Xiao%Wang%NULL%1,                             Zhe-Yu%Hu%NULL%1,                             Yapeng%Deng%NULL%1,                             Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,                             Naofumi%Bunya%NULL%1,                             Tomoyuki%Endo%NULL%1,                             Yuji%Fujino%NULL%1,                             Kensuke%Fujita%NULL%1,                             Kenji%Fujizuka%NULL%1,                             Yoshihiro%Hagiwara%NULL%1,                             Jun%Hamaguchi%NULL%1,                             Yoshitaka%Hara%NULL%1,                             Eiji%Hashiba%NULL%1,                             Satoru%Hashimoto%NULL%1,                             Noriyuki%Hattori%NULL%1,                             Kota%Hoshino%NULL%1,                             Shinichi%Ijuin%NULL%1,                             Takanari%Ikeyama%NULL%1,                             Shingo%Ichiba%NULL%1,                             Wataru%Iwanaga%NULL%1,                             Yoshiaki%Iwashita%NULL%1,                             Masafumi%Kanamoto%NULL%1,                             Hitoshi%Kaneko%NULL%1,                             Kaneyuki%Kawamae%NULL%1,                             Toru%Kotani%NULL%1,                             Yasuaki%Koyama%NULL%1,                             Keibun%Liu%NULL%1,                             Tomohiko%Masuno%NULL%1,                             Naoto%Morimura%NULL%1,                             Tomoyuki%Nakamura%NULL%1,                             Masaki%Nakane%NULL%1,                             Michitaka%Nasu%NULL%1,                             Osamu%Nishida%NULL%1,                             Masaji%Nishimura%NULL%1,                             Kanae%Ochiai%NULL%1,                             Takayuki%Ogura%NULL%1,                             Shinichiro%Ohshimo%NULL%1,                             Keisuke%Oyama%NULL%1,                             Junichi%Sasaki%NULL%1,                             Ryutaro%Seo%NULL%1,                             Takeshi%Shimazu%NULL%1,                             Nobuaki%Shime%NULL%4,                             Keiki%Shimizu%NULL%1,                             Hiroyuki%Suzuki%NULL%1,                             Shuhei%Takauji%NULL%1,                             Shinhiro%Takeda%NULL%1,                             Ichiro%Takeuchi%NULL%2,                             Mumon%Takita%NULL%1,                             Hayato%Taniguchi%NULL%1,                             Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                             Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                             Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,                             Yi Xin%Tong%NULL%3,                             Sheng%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,                             Hong%Chen%NULL%0,                             Zhen%Li%NULL%2,                             Bo%Wang%NULL%0,                             Zhong-Wei%Zhang%NULL%1,                             Wei-Min%Li%NULL%0,                             Zong-An%Liang%NULL%0,                             Jin%Tang%NULL%1,                             Jian%Wang%NULL%1,                             Rui%Shi%NULL%1,                             Xiao-Dong%Jin%NULL%1,                             Yan%Kang%NULL%0,                             Pei-Fang%Wei%NULL%8,                             Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,                             Chaisith%Sivakorn%NULL%1,                             Tanuwong%Viarasilpa%NULL%1,                             Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                             Mu%Qin%qinmuae@163.com%1,                             Yuli%Cai%NULL%1,                             Tao%Liu%NULL%0,                             Bo%Shen%NULL%1,                             Fan%Yang%NULL%2,                             Sheng%Cao%NULL%1,                             Xu%Liu%NULL%2,                             Xu%Liu%NULL%0,                             Yaozu%Xiang%NULL%1,                             Qinyan%Zhao%NULL%1,                             He%Huang%huanghe1977@whu.edu.cn%0,                             Bo%Yang%yybb112@whu.edu.cn%0,                             Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,                             Win%Kulvichit%NULL%1,                             Sunchai%Payungporn%NULL%1,                             Trairak%Pisitkun%NULL%1,                             Ariya%Chindamporn%NULL%1,                             Sadudee%Peerapornratana%NULL%1,                             Prapaporn%Pisitkun%NULL%1,                             Suwalak%Chitcharoen%NULL%1,                             Vorthon%Sawaswong%NULL%1,                             Navaporn%Worasilchai%NULL%1,                             Sarinya%Kampunya%NULL%1,                             Opass%Putcharoen%NULL%1,                             Thammasak%Thawitsri%NULL%1,                             Nophol%Leelayuwatanakul%NULL%1,                             Napplika%Kongpolprom%NULL%1,                             Vorakamol%Phoophiboon%NULL%1,                             Thitiwat%Sriprasart%NULL%1,                             Rujipat%Samransamruajkit%NULL%1,                             Somkanya%Tungsanga%NULL%1,                             Kanitha%Tiankanon%NULL%1,                             Nuttha%Lumlertgul%NULL%1,                             Asada%Leelahavanichkul%NULL%1,                             Tueboon%Sriphojanart%NULL%1,                             Terapong%Tantawichien%NULL%1,                             Usa%Thisyakorn%NULL%1,                             Chintana%Chirathaworn%NULL%1,                             Kearkiat%Praditpornsilpa%NULL%1,                             Kriang%Tungsanga%NULL%1,                             Somchai%Eiam-Ong%NULL%1,                             Visith%Sitprija%NULL%1,                             John A.%Kellum%NULL%1,                             Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                             Min%Pan%NULL%3,                             Xiumei%Zhang%NULL%3,                             Mingfeng%Han%fyhmf@163.com%5,                             Xiaoyun%Fan%13956988552@126.com%3,                             Fengde%Zhao%NULL%3,                             Manli%Miao%NULL%3,                             Jing%Xu%NULL%0,                             Minglong%Guan%NULL%3,                             Xia%Deng%NULL%3,                             Xu%Chen%NULL%4,                             Leilei%Shen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%1,                             Chunli%Tang%NULL%0,                             Ruchong%Chen%NULL%1,                             Honglian%Ruan%NULL%1,                             Wenhua%Liang%NULL%0,                             Weijie%Guan%NULL%0,                             Ling%Sang%NULL%0,                             Ruidi%Tang%NULL%1,                             Nanshan%Zhong%NULL%0,                             Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                             Yuan%Yu%NULL%5,                             Jiqian%Xu%NULL%0,                             Huaqing%Shu%NULL%5,                             Jia'an%Xia%NULL%0,                             Hong%Liu%NULL%5,                             Yongran%Wu%NULL%0,                             Lu%Zhang%NULL%5,                             Zhui%Yu%NULL%0,                             Minghao%Fang%NULL%0,                             Ting%Yu%NULL%0,                             Yaxin%Wang%NULL%5,                             Shangwen%Pan%NULL%5,                             Xiaojing%Zou%NULL%7,                             Shiying%Yuan%NULL%0,                             You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,                             Shanyan%Zhang%NULL%2,                             Xiaoli%Zhang%NULL%1,                             Huan%Cai%NULL%2,                             Jueqing%Gu%NULL%2,                             Jiangshan%Lian%NULL%2,                             Yingfeng%Lu%NULL%2,                             Hongyu%Jia%NULL%2,                             Jianhua%Hu%NULL%2,                             Ciliang%Jin%NULL%2,                             Guodong%Yu%NULL%2,                             Yimin%Zhang%NULL%2,                             Jifang%Sheng%NULL%4,                             Yida%Yang%yidayang65@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                             Dan%Xu%NULL%0,                             Shouzhi%Fu%NULL%0,                             Jun%Zhang%NULL%0,                             Xiaobo%Yang%NULL%0,                             Liang%Xu%NULL%0,                             Jiqian%Xu%NULL%0,                             Yongran%Wu%NULL%0,                             Chaolin%Huang%NULL%0,                             Yaqi%Ouyang%NULL%0,                             Luyu%Yang%NULL%0,                             Minghao%Fang%NULL%0,                             Hongwen%Xiao%NULL%0,                             Jing%Ma%NULL%0,                             Wei%Zhu%NULL%0,                             Song%Hu%NULL%0,                             Quan%Hu%NULL%0,                             Daoyin%Ding%NULL%0,                             Ming%Hu%NULL%0,                             Guochao%Zhu%NULL%0,                             Weijiang%Xu%NULL%0,                             Jun%Guo%NULL%0,                             Jinglong%Xu%NULL%0,                             Haitao%Yuan%NULL%0,                             Bin%Zhang%NULL%0,                             Zhui%Yu%yuzhui@whu.edu.cn%0,                             Dechang%Chen%icudechangchen@163.com%0,                             Shiying%Yuan%yuan_shiying@163.com%0,                             You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,                             Hao-Yu%Gao%NULL%1,                             Zi-Yi%Feng%NULL%1,                             Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,                             Li-jun%Sun%NULL%1,                             Mi%Xu%NULL%1,                             Jian%Pan%NULL%1,                             Yun-tao%Zhang%NULL%1,                             Xue-ling%Fang%NULL%1,                             Qiang%Fang%NULL%2,                             Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,                             Ziqiang%Du%NULL%1,                             Yanfang%Zhu%NULL%1,                             Wenfeng%Li%NULL%1,                             Hongjun%Miao%NULL%1,                             Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,                             Sarah%Al-Youha%sarahalyouha@gmail.com%1,                             Mohammad H.%Jamal%NULL%1,                             Mohannad%Al-Haddad%NULL%1,                             Ali%Al-Muhaini%NULL%1,                             Fahad%Al-Ghimlas%NULL%1,                             Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,                             Mina%Akbari Rad%NULL%1,                             Robert%Bergquist%NULL%1,                             Abolghasem%Allahyari%NULL%1,                             Kamila%Hashemzadeh%NULL%1,                             Nasrin%Milani%NULL%1,                             Mahdi%Gholian-Aval%NULL%1,                             Fariba%Rezaeitalab%NULL%1,                             Mohammad Jafar%Sadeghi Quchani%NULL%1,                             Zahra%Nahbandani%NULL%1,                             Mandana%Khodashahi%NULL%1,                             Zahra%Javid%NULL%1,                             Mahnaz%Mozdourian%NULL%1,                             Mohammad Ali%Yaghoubi%NULL%1,                             Zahra%Mozaheb%NULL%1,                             Mohsen%Seddigh-Shamsi%NULL%1,                             Mohammad%Moeini Nodeh%NULL%1,                             Shima%Nabavi%NULL%1,                             Hooman%Mosannen Mozaffari%NULL%1,                             Mohammadreza%Farzanehfar%NULL%1,                             Zahra%Lotfi%NULL%1,                             Alireza%Shariati%NULL%1,                             Shekoofe%Bonakdaran%NULL%1,                             Zahra%Rezaieyazdi%NULL%1,                             Zahra%Mirfeizi%NULL%1,                             Maryam%Miri%NULL%1,                             Reza%Bassiri%NULL%1,                             Sajjad%Ataei Azimi%NULL%1,                             Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,                             Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,                             Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,                             Ibrahim%Al-Zakwani%NULL%1,                             Hamed%Al Naamani%NULL%1,                             Sultan%Al Lawati%NULL%1,                             Nenad%Pandak%NULL%1,                             Muna Ba%Omar%NULL%1,                             Maher%Al Bahrani%NULL%1,                             Zakaryia AL%Bulushi%NULL%1,                             Huda%Al Khalili%NULL%1,                             Issa%Al Salmi%NULL%1,                             Ruwaida%Al Ismaili%NULL%1,                             Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,                             Zohre%Khodamoradi%NULL%1,                             Amirhossein%Erfani%NULL%1,                             Hamidreza%Hosseinpour%NULL%1,                             Keivan%Ranjbar%NULL%1,                             Yasaman%Emami%NULL%1,                             Alireza%Mirahmadizadeh%NULL%1,                             Mehrzad%Lotfi%NULL%1,                             Babak%Shirazi Yeganeh%NULL%1,                             Abolfazl%Dorrani Nejad%NULL%1,                             Abdolrasool%Hemmati%NULL%1,                             Mostafa%Ebrahimi%NULL%1,                             Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,                             Annachiara%Ferrari%NULL%2,                             Annachiara%Ferrari%NULL%0,                             Francesco%Fontana%NULL%1,                             Giacomo%Mori%NULL%1,                             Riccardo%Magistroni%NULL%1,                             Marianna%Meschiari%NULL%1,                             Erica%Franceschini%NULL%1,                             Marianna%Menozzi%NULL%1,                             Gianluca%Cuomo%NULL%1,                             Gabriella%Orlando%NULL%1,                             Antonella%Santoro%NULL%1,                             Margherita%Digaetano%NULL%1,                             Cinzia%Puzzolante%NULL%1,                             Federica%Carli%NULL%1,                             Andrea%Bedini%NULL%1,                             Jovana%Milic%NULL%1,                             Irene%Coloretti%NULL%1,                             Paolo%Raggi%NULL%1,                             Cristina%Mussini%NULL%1,                             Massimo%Girardis%NULL%1,                             Gianni%Cappelli%NULL%1,                             Giovanni%Guaraldi%NULL%1,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,                             Silvia%Bettini%NULL%2,                             Silvia%Bettini%NULL%0,                             Roberto%Fabris%NULL%1,                             Roberto%Serra%NULL%2,                             Chiara%Dal Pra%NULL%1,                             Pietro%Maffei%NULL%1,                             Marco%Rossato%NULL%1,                             Paola%Fioretto%NULL%0,                             Roberto%Vettor%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,                             Marco%Roncador%NULL%2,                             Marco%Roncador%NULL%0,                             Andrea%Saporito%NULL%1,                             Maira%Biggiogero%NULL%1,                             Andrea%Glotta%NULL%1,                             Pier Andrea%Maida%NULL%1,                             Patrizia%Urso%NULL%1,                             Giovanni%Bona%NULL%1,                             Christian%Garzoni%NULL%1,                             Romano%Mauri%NULL%1,                             Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,                             Anna Lisa%Ridolfo%NULL%4,                             Laura%Milazzo%NULL%2,                             Letizia%Oreni%NULL%4,                             Dario%Bernacchia%NULL%4,                             Matteo%Siano%NULL%4,                             Cecilia%Bonazzetti%NULL%2,                             Alice%Covizzi%NULL%2,                             Marco%Schiuma%NULL%2,                             Matteo%Passerini%NULL%2,                             Marco%Piscaglia%NULL%2,                             Massimo%Coen%NULL%2,                             Guido%Gubertini%NULL%2,                             Giuliano%Rizzardini%NULL%4,                             Chiara%Cogliati%NULL%2,                             Anna Maria%Brambilla%NULL%2,                             Riccardo%Colombo%NULL%2,                             Antonio%Castelli%NULL%2,                             Roberto%Rech%NULL%2,                             Agostino%Riva%NULL%2,                             Alessandro%Torre%NULL%2,                             Luca%Meroni%NULL%2,                             Stefano%Rusconi%NULL%4,                             Spinello%Antinori%NULL%4,                             Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,                             Lara%Gianesello%gianesello.lara@libero.it%1,                             Maddalena%Pazzi%NULL%2,                             Maddalena%Pazzi%NULL%0,                             Caterina%Stera%NULL%1,                             Tommaso%Meconi%NULL%1,                             Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,                             Andrea%Dalbeni%NULL%2,                             Andrea%Dalbeni%NULL%0,                             Elia%Vettore%NULL%2,                             Elia%Vettore%NULL%0,                             Devis%Benfaremo%NULL%1,                             Massimo%Mattioli%NULL%1,                             Carmine G.%Gambino%NULL%1,                             Viviana%Framba%NULL%2,                             Viviana%Framba%NULL%0,                             Lorenzo%Cerruti%NULL%1,                             Anna%Mantovani%NULL%1,                             Andrea%Martini%NULL%1,                             Michele M.%Luchetti%NULL%1,                             Roberto%Serra%NULL%0,                             Annamaria%Cattelan%NULL%1,                             Roberto%Vettor%NULL%0,                             Paolo%Angeli%NULL%1,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,                             Matthaios%Papadimitriou-Olivgeris%NULL%2,                             Matthaios%Papadimitriou-Olivgeris%NULL%0,                             Raphaël%Burger%NULL%1,                             Marie-Annick%Le Pogam%NULL%1,                             Tapio%Niemi%NULL%2,                             Tapio%Niemi%NULL%0,                             Paraskevas%Filippidis%NULL%1,                             Jonathan%Tschopp%NULL%1,                             Florian%Desgranges%NULL%1,                             Benjamin%Viala%NULL%1,                             Eleftheria%Kampouri%NULL%1,                             Laurence%Rochat%NULL%2,                             Laurence%Rochat%NULL%0,                             David%Haefliger%NULL%1,                             Mehdi%Belkoniene%NULL%1,                             Carlos%Fidalgo%NULL%1,                             Antonios%Kritikos%NULL%1,                             Katia%Jaton%NULL%1,                             Laurence%Senn%NULL%1,                             Pierre-Alexandre%Bart%NULL%1,                             Jean-Luc%Pagani%NULL%2,                             Jean-Luc%Pagani%NULL%0,                             Oriol%Manuel%NULL%1,                             Loïc%Lhopitallier%NULL%1,                             Chiara%Lazzeri%NULL%2,                             Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,                             Ashwin%Subramaniam%NULL%2,                             Ashwin%Subramaniam%NULL%0,                             Mallikarjuna%Ponnapa Reddy%NULL%2,                             Mallikarjuna%Ponnapa Reddy%NULL%0,                             Gabriel%Blecher%NULL%1,                             Umesh%Kadam%NULL%2,                             Umesh%Kadam%NULL%0,                             Afsana%Afroz%NULL%1,                             Baki%Billah%NULL%1,                             Sushma%Ashwin%NULL%1,                             Mark%Kubicki%NULL%1,                             Federico%Bilotta%NULL%1,                             J. Randall%Curtis%NULL%2,                             J. Randall%Curtis%NULL%0,                             Francesca%Rubulotta%NULL%2,                             Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                             Samuel L%Bruce%NULL%2,                             Cody L%Slater%NULL%2,                             Jonathan R%Tiao%NULL%2,                             Matthew R%Baldwin%NULL%3,                             R Graham%Barr%NULL%2,                             Bernard P%Chang%NULL%2,                             Katherine H%Chau%NULL%2,                             Justin J%Choi%NULL%2,                             Nicholas%Gavin%NULL%2,                             Parag%Goyal%NULL%2,                             Angela M%Mills%NULL%2,                             Ashmi A%Patel%NULL%2,                             Marie-Laure S%Romney%NULL%2,                             Monika M%Safford%NULL%2,                             Neil W%Schluger%NULL%2,                             Soumitra%Sengupta%NULL%2,                             Magdalena E%Sobieszczyk%NULL%2,                             Jason E%Zucker%NULL%2,                             Paul A%Asadourian%NULL%2,                             Fletcher M%Bell%NULL%2,                             Rebekah%Boyd%NULL%2,                             Matthew F%Cohen%NULL%2,                             MacAlistair I%Colquhoun%NULL%2,                             Lucy A%Colville%NULL%2,                             Joseph H%de Jonge%NULL%2,                             Lyle B%Dershowitz%NULL%2,                             Shirin A%Dey%NULL%2,                             Katherine A%Eiseman%NULL%2,                             Zachary P%Girvin%NULL%2,                             Daniella T%Goni%NULL%2,                             Amro A%Harb%NULL%2,                             Nicholas%Herzik%NULL%2,                             Sarah%Householder%NULL%2,                             Lara E%Karaaslan%NULL%2,                             Heather%Lee%NULL%2,                             Evan%Lieberman%NULL%2,                             Andrew%Ling%NULL%2,                             Ree%Lu%NULL%2,                             Arthur Y%Shou%NULL%2,                             Alexander C%Sisti%NULL%2,                             Zachary E%Snow%NULL%2,                             Colin P%Sperring%NULL%2,                             Yuqing%Xiong%NULL%2,                             Henry W%Zhou%NULL%2,                             Karthik%Natarajan%NULL%2,                             George%Hripcsak%NULL%2,                             Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                             Mark%Caridi-Scheible%NULL%3,                             James M.%Blum%NULL%2,                             Chad%Robichaux%NULL%2,                             Colleen%Kraft%NULL%2,                             Jesse T.%Jacob%NULL%2,                             Craig S.%Jabaley%NULL%2,                             David%Carpenter%NULL%2,                             Roberta%Kaplow%NULL%2,                             Alfonso C.%Hernandez-Romieu%NULL%2,                             Max W.%Adelman%NULL%2,                             Greg S.%Martin%NULL%2,                             Craig M.%Coopersmith%NULL%2,                             David J.%Murphy%NULL%2,                             NULL%NULL%NULL%0,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                             Bijan J.%Ghassemieh%NULL%0,                             Michelle%Nichols%NULL%0,                             Richard%Kim%NULL%0,                             Keith R.%Jerome%NULL%0,                             Arun K.%Nalla%NULL%0,                             Alexander L.%Greninger%NULL%0,                             Sudhakar%Pipavath%NULL%0,                             Mark M.%Wurfel%NULL%0,                             Laura%Evans%NULL%0,                             Patricia A.%Kritek%NULL%0,                             T. Eoin%West%NULL%0,                             Andrew%Luks%NULL%0,                             Anthony%Gerbino%NULL%0,                             Chris R.%Dale%NULL%0,                             Jason D.%Goldman%NULL%0,                             Shane%O’Mahony%NULL%0,                             Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                             Denise J%McCulloch%NULL%0,                             Denise J%McCulloch%NULL%0,                             Vidya%Atluri%NULL%0,                             Michela%Blain%NULL%0,                             Sarah A%McGuffin%NULL%0,                             Arun K%Nalla%NULL%0,                             Meei-Li%Huang%NULL%0,                             Alex L%Greninger%NULL%0,                             Keith R%Jerome%NULL%0,                             Seth A%Cohen%NULL%0,                             Santiago%Neme%NULL%0,                             Margaret L%Green%NULL%0,                             Helen Y%Chu%NULL%0,                             H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,                             Joelle I.%Rosser%NULL%0,                             Orlando%Quintero%NULL%0,                             Jake%Scott%NULL%0,                             Aruna%Subramanian%NULL%0,                             Mohammad%Gumma%NULL%0,                             Angela%Rogers%NULL%0,                             Shanthi%Kappagoda%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,                             Jacob%Fiksel%NULL%2,                             Jacob%Fiksel%NULL%0,                             John%Muschelli%NULL%2,                             John%Muschelli%NULL%0,                             Matthew L.%Robinson%NULL%2,                             Matthew L.%Robinson%NULL%0,                             Masoud%Rouhizadeh%NULL%2,                             Masoud%Rouhizadeh%NULL%0,                             Jamie%Perin%NULL%2,                             Jamie%Perin%NULL%0,                             Grant%Schumock%NULL%2,                             Grant%Schumock%NULL%0,                             Paul%Nagy%NULL%2,                             Paul%Nagy%NULL%0,                             Josh H.%Gray%NULL%2,                             Josh H.%Gray%NULL%0,                             Harsha%Malapati%NULL%2,                             Harsha%Malapati%NULL%0,                             Mariam%Ghobadi-Krueger%NULL%2,                             Mariam%Ghobadi-Krueger%NULL%0,                             Timothy M.%Niessen%NULL%1,                             Bo Soo%Kim%NULL%1,                             Peter M.%Hill%NULL%1,                             M. Shafeeq%Ahmed%NULL%1,                             Eric D.%Dobkin%NULL%1,                             Renee%Blanding%NULL%1,                             Jennifer%Abele%NULL%1,                             Bonnie%Woods%NULL%1,                             Kenneth%Harkness%NULL%1,                             David R.%Thiemann%NULL%1,                             Mary G.%Bowring%NULL%1,                             Aalok B.%Shah%NULL%2,                             Aalok B.%Shah%NULL%0,                             Mei-Cheng%Wang%NULL%1,                             Karen%Bandeen-Roche%NULL%1,                             Antony%Rosen%NULL%1,                             Scott L.%Zeger%NULL%2,                             Scott L.%Zeger%NULL%0,                             Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                             Justin J.%Choi%NULL%0,                             Laura C.%Pinheiro%NULL%0,                             Edward J.%Schenck%NULL%0,                             Ruijun%Chen%NULL%0,                             Assem%Jabri%NULL%0,                             Michael J.%Satlin%NULL%0,                             Thomas R.%Campion%NULL%0,                             Musarrat%Nahid%NULL%0,                             Joanna B.%Ringel%NULL%0,                             Katherine L.%Hoffman%NULL%0,                             Mark N.%Alshak%NULL%0,                             Han A.%Li%NULL%0,                             Graham T.%Wehmeyer%NULL%0,                             Graham T.%Wehmeyer%NULL%0,                             Mangala%Rajan%NULL%0,                             Evgeniya%Reshetnyak%NULL%0,                             Nathaniel%Hupert%NULL%0,                             Evelyn M.%Horn%NULL%0,                             Fernando J.%Martinez%NULL%0,                             Roy M.%Gulick%NULL%0,                             Monika M.%Safford%NULL%0,                             Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                             Simon A%Jones%NULL%0,                             Jie%Yang%NULL%0,                             Harish%Rajagopalan%NULL%0,                             Luke%O’Donnell%NULL%0,                             Yelena%Chernyak%NULL%0,                             Katie A%Tobin%NULL%0,                             Robert J%Cerfolio%NULL%0,                             Fritz%Francois%NULL%0,                             Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                             Anatoly%Mitrokhin%NULL%2,                             Anatoly%Mitrokhin%NULL%0,                             Ajai%Rajabalan%NULL%1,                             Christian%Benjamin%NULL%1,                             Sushma%Raviralla%NULL%1,                             Vishnu R%Mani%vishnu.mani@duke.edu%2,                             Vishnu R%Mani%vishnu.mani@duke.edu%0,                             Aleksandr%Kalabin%NULL%2,                             Aleksandr%Kalabin%NULL%0,                             Sebastian C%Valdivieso%NULL%2,                             Sebastian C%Valdivieso%NULL%0,                             Max%Murray-Ramcharan%NULL%2,                             Max%Murray-Ramcharan%NULL%0,                             Brian%Donaldson%NULL%2,                             Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,                             Damianos G.%Kokkinidis%NULL%1,                             Weijia%Li%NULL%1,                             Dimitrios%Karamanis%NULL%1,                             Jennifer%Ognibene%NULL%1,                             Shitij%Arora%NULL%1,                             William N.%Southern%NULL%1,                             Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,                             Jesus D.%Gonzalez-Lugo%NULL%1,                             Shafia%Rahman%NULL%1,                             Mohammad%Barouqa%NULL%1,                             James%Szymanski%NULL%1,                             Kenji%Ikemura%NULL%1,                             Yungtai%Lo%NULL%1,                             Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,                             Viet-Thi%Tran%NULL%4,                             Viet-Thi%Tran%NULL%0,                             Mathilde%Roumier%NULL%2,                             Amélie%Chabrol%NULL%2,                             Romain%Paule%NULL%2,                             Constance%Guillaud%NULL%2,                             Elena%Fois%NULL%2,                             Raphael%Lepeule%NULL%2,                             Tali-Anne%Szwebel%NULL%2,                             François-Xavier%Lescure%NULL%2,                             Frédéric%Schlemmer%NULL%2,                             Marie%Matignon%NULL%2,                             Mehdi%Khellaf%NULL%2,                             Etienne%Crickx%NULL%2,                             Benjamin%Terrier%NULL%2,                             Caroline%Morbieu%NULL%2,                             Paul%Legendre%NULL%2,                             Julien%Dang%NULL%2,                             Yoland%Schoindre%NULL%2,                             Jean-Michel%Pawlotsky%NULL%2,                             Marc%Michel%NULL%2,                             Elodie%Perrodeau%NULL%2,                             Nicolas%Carlier%NULL%2,                             Nicolas%Roche%NULL%2,                             Victoire%de Lastours%NULL%2,                             Clément%Ourghanlian%NULL%2,                             Solen%Kerneis%NULL%2,                             Philippe%Ménager%NULL%2,                             Luc%Mouthon%NULL%2,                             Etienne%Audureau%NULL%2,                             Philippe%Ravaud%NULL%2,                             Bertrand%Godeau%NULL%2,                             Sébastien%Gallien%NULL%2,                             Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,                           Yu%Zuo%NULL%1,                           Srilakshmi%Yalavarthi%NULL%1,                           Kelsey%Gockman%NULL%1,                           Melanie%Zuo%NULL%1,                           Jacqueline A%Madison%NULL%1,                           Christopher%Blair%NULL%1,                           Wrenn%Woodward%NULL%1,                           Sean P%Lezak%NULL%1,                           Njira L%Lugogo%NULL%1,                           Robert J%Woods%NULL%1,                           Christian%Lood%NULL%1,                           Jason S%Knight%NULL%2,                           Jason S%Knight%NULL%0,                           Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,                             Raef A.%Fadel%NULL%1,                             Kelly M.%Malette%NULL%1,                             Charles%Hammond%NULL%1,                             Hafsa%Abdulla%NULL%1,                             Abigail%Entz%NULL%1,                             Zachary%Demertzis%NULL%1,                             Zachary%Hanna%NULL%1,                             Andrew%Failla%NULL%1,                             Carina%Dagher%NULL%0,                             Zohra%Chaudhry%NULL%2,                             Amit%Vahia%NULL%2,                             Odaliz%Abreu Lanfranco%NULL%1,                             Mayur%Ramesh%NULL%1,                             Marcus J.%Zervos%NULL%1,                             George%Alangaden%NULL%2,                             Joseph%Miller%NULL%2,                             Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%0, Chenchen%Qian%NULL%1, Zhibing%Luo%NULL%1, Qiang%Li%liqressh@hotmail.com%0, Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With the outbreak of coronavirus disease-19 (COVID-19), Changsha faced an increasing burden of treating the Wuhan migrants and their infected patients.
+ This study is a retrospective, single-center case series of the 238 consecutive hospitalized patients with confirmed COVID-19 at the First Hospital of Changsha city, China, from 01/21 to 02/14, 2020; the final date of follow-up was 02/27, 2020. Of 238 patients 43.7% visited Wuhan, 58.4% got in touch with Wuhan people, and 47.5% had contacted with diagnosed patients.
+ 37.8% patients had family members infected.
+ 190 cases had mild / general disease, and 48 cases had severe / critical disease.
+ Compared to mild or general patients, more severe or critical patients visited Wuhan (59.6% vs 40.2%; P=0.02) and contacted with Wuhan people (74.5% vs 55.0%; P=0.02).
+ All patients received antiviral treatment, including Lopinavir / Ritonavir (29.3%), Interferon (14.6%) and their combination (40.6%), Arbidol (6.7%), Xuebijing (7.1%) and Chloroquine phosphate (1.3%).
+ Severe and critical patients received glucocorticoid, Gamma-globulin and oxygen inhalation.
+ Some received mechanic ventilation support.
+ As of 02/27, 161 patients discharged.
+ The median length of hospital stay was 13 days.
+ The 10-, 14-, 20- and 28-day discharge rate was 19.1%, 42.8%, 65.0% and 76.4%, respectively.
+ No hospital-related transmission was observed.
+</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%0, Chunlin%Cai%NULL%1, Jinglei%Zang%NULL%1, Jun%Xie%NULL%1, Dan%Xu%NULL%0, Fang%Zheng%NULL%0, Tao%Zhan%NULL%1, Kang%Huang%NULL%1, Yikai%Wang%NULL%1, Xiao%Wang%NULL%0, Zhe-Yu%Hu%NULL%1, Yapeng%Deng%NULL%1, Yuanlin%Xie%NULL%2]</t>
+  </si>
+  <si>
+    <t>Impact Journals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;Appropriate critical care delivery for Coronavirus disease 2019 (COVID-19) is a cornerstone in saving lives.
+ Earlier publications worldwide demonstrate higher mortality among patients receiving mechanical ventilation in intensive care units during “surges” in the number of cases.
+ In contrast, lower mortality outcomes are evident in Japan using CRISIS [CRoss Icu Searchable Information System] data by the national registry, Japan ECMOnet for COVID-19. This highlights the need for scientific analysis of the medical factors contributing to high survival rates and social factors associated with low case “surges,” to gain insight into protective strategies for possible coming waves in the COVID-19 pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%0, Naofumi%Bunya%NULL%1, Tomoyuki%Endo%NULL%1, Yuji%Fujino%NULL%1, Kensuke%Fujita%NULL%1, Kenji%Fujizuka%NULL%1, Yoshihiro%Hagiwara%NULL%1, Jun%Hamaguchi%NULL%1, Yoshitaka%Hara%NULL%1, Eiji%Hashiba%NULL%1, Satoru%Hashimoto%NULL%1, Noriyuki%Hattori%NULL%1, Kota%Hoshino%NULL%1, Shinichi%Ijuin%NULL%1, Takanari%Ikeyama%NULL%1, Shingo%Ichiba%NULL%1, Wataru%Iwanaga%NULL%1, Yoshiaki%Iwashita%NULL%1, Masafumi%Kanamoto%NULL%1, Hitoshi%Kaneko%NULL%1, Kaneyuki%Kawamae%NULL%1, Toru%Kotani%NULL%1, Yasuaki%Koyama%NULL%1, Keibun%Liu%NULL%1, Tomohiko%Masuno%NULL%1, Naoto%Morimura%NULL%1, Tomoyuki%Nakamura%NULL%1, Masaki%Nakane%NULL%1, Michitaka%Nasu%NULL%1, Osamu%Nishida%NULL%1, Masaji%Nishimura%NULL%1, Kanae%Ochiai%NULL%1, Takayuki%Ogura%NULL%1, Shinichiro%Ohshimo%NULL%1, Keisuke%Oyama%NULL%1, Junichi%Sasaki%NULL%1, Ryutaro%Seo%NULL%1, Takeshi%Shimazu%NULL%1, Nobuaki%Shime%NULL%4, Keiki%Shimizu%NULL%1, Hiroyuki%Suzuki%NULL%1, Shuhei%Takauji%NULL%1, Shinhiro%Takeda%NULL%1, Ichiro%Takeuchi%NULL%2, Mumon%Takita%NULL%1, Hayato%Taniguchi%NULL%1, Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0, Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0, Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A novel coronavirus (COVID-19) pandemic threatens the world.
+ Here, we first studied the
+dynamics profile of SARS-CoV-2 from 56 recovered patients with COVID-19. We found viral
+shedding occurred up to 6 weeks after onset of symptoms.
+ A prolonged observation period is
+necessary for older patients.
+</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0, Yi Xin%Tong%NULL%3, Sheng%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%0, Hong%Chen%NULL%0, Zhen%Li%NULL%4, Bo%Wang%NULL%0, Zhong-Wei%Zhang%NULL%1, Wei-Min%Li%NULL%0, Zong-An%Liang%NULL%0, Jin%Tang%NULL%1, Jian%Wang%NULL%0, Rui%Shi%NULL%1, Xiao-Dong%Jin%NULL%1, Yan%Kang%NULL%0, Pei-Fang%Wei%NULL%0, Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since late December 2019, the world has been challenged with an outbreak of COVID-19. In Thailand, an upper middle–income country with a limited healthcare infrastructure and restricted human resources, nearly 3,000 confirmed COVID-19 cases have been reported as of early May 2020. Public health policies aimed at preventing new COVID-19 cases were very effective in halting the pandemic in Thailand.
+ Case fatality in Thailand has been low (1.7%), at least in part due to early stratification according to risk of disease severity and timely initiation of supportive care with affordable measures.
+ We present our initial experience with COVID-19 in Thailand, focusing on several aspects that may have played a crucial role in curtailment of the pandemic, and elements of care for severely ill COVID-19 patients, including stratification, isolation, and affordable diagnostic approaches and supportive care measures.
+ We also discuss local considerations concerning some proposed experimental treatments.
+</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%0, Chaisith%Sivakorn%NULL%1, Tanuwong%Viarasilpa%NULL%1, Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>The American Society of Tropical Medicine and Hygiene</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0, Mu%Qin%qinmuae@163.com%0, Yuli%Cai%NULL%0, Tao%Liu%NULL%0, Bo%Shen%NULL%0, Fan%Yang%NULL%0, Sheng%Cao%NULL%0, Xu%Liu%NULL%0, Xu%Liu%NULL%0, Yaozu%Xiang%NULL%0, Qinyan%Zhao%NULL%0, He%Huang%huanghe1977@whu.edu.cn%0, Bo%Yang%yybb112@whu.edu.cn%0, Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+id="Par1"&gt;When severe, COVID-19 shares many clinical features with bacterial sepsis.
+ Yet, secondary bacterial infection is uncommon.
+ However, as epithelium is injured and barrier function is lost, bacterial products entering the circulation might contribute to the pathophysiology of COVID-19.
+Methods
+id="Par2"&gt;We studied 19 adults, severely ill patients with COVID-19 infection, who were admitted to King Chulalongkorn Memorial Hospital, Bangkok, Thailand, between 13th March and 17th April 2020. Blood samples on days 1, 3, and 7 of enrollment were analyzed for endotoxin activity assay (EAA), (1 → 3)-β-d-glucan (BG), and 16S rRNA gene sequencing to determine the circulating bacteriome.
+Results
+id="Par3"&gt;Of the 19 patients, 13 were in intensive care and 10 patients received mechanical ventilation.
+ We found 8 patients with high EAA (≥ 0.6) and about half of the patients had high serum BG levels which tended to be higher in later in the illness.
+ Although only 1 patient had a positive blood culture, 18 of 19 patients were positive for 16S rRNA gene amplification.
+ Proteobacteria was the most abundant phylum.
+ The diversity of bacterial genera was decreased overtime.
+Conclusions
+id="Par4"&gt;Bacterial DNA and toxins were discovered in virtually all severely ill COVID-19 pneumonia patients.
+ This raises a previously unrecognized concern for significant contribution of bacterial products in the pathogenesis of this disease.
+</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%0, Win%Kulvichit%NULL%1, Sunchai%Payungporn%NULL%0, Trairak%Pisitkun%NULL%1, Ariya%Chindamporn%NULL%1, Sadudee%Peerapornratana%NULL%1, Prapaporn%Pisitkun%NULL%1, Suwalak%Chitcharoen%NULL%1, Vorthon%Sawaswong%NULL%1, Navaporn%Worasilchai%NULL%1, Sarinya%Kampunya%NULL%1, Opass%Putcharoen%NULL%1, Thammasak%Thawitsri%NULL%1, Nophol%Leelayuwatanakul%NULL%1, Napplika%Kongpolprom%NULL%1, Vorakamol%Phoophiboon%NULL%1, Thitiwat%Sriprasart%NULL%1, Rujipat%Samransamruajkit%NULL%1, Somkanya%Tungsanga%NULL%1, Kanitha%Tiankanon%NULL%1, Nuttha%Lumlertgul%NULL%1, Asada%Leelahavanichkul%NULL%1, Tueboon%Sriphojanart%NULL%1, Terapong%Tantawichien%NULL%1, Usa%Thisyakorn%NULL%1, Chintana%Chirathaworn%NULL%1, Kearkiat%Praditpornsilpa%NULL%1, Kriang%Tungsanga%NULL%1, Somchai%Eiam-Ong%NULL%1, Visith%Sitprija%NULL%1, John A.%Kellum%NULL%1, Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>Springer International Publishing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Do not ignore patients without certain exposure history.
+</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0, Min%Pan%NULL%0, Xiumei%Zhang%NULL%0, Mingfeng%Han%fyhmf@163.com%0, Xiaoyun%Fan%13956988552@126.com%0, Fengde%Zhao%NULL%0, Manli%Miao%NULL%0, Jing%Xu%NULL%0, Minglong%Guan%NULL%0, Xia%Deng%NULL%0, Xu%Chen%NULL%0, Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier Ltd on behalf of International Society for Infectious Diseases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplemental Digital Content is available in the text.
+</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%0, Chunli%Tang%NULL%0, Ruchong%Chen%NULL%0, Honglian%Ruan%NULL%1, Wenhua%Liang%NULL%0, Weijie%Guan%NULL%0, Ling%Sang%NULL%0, Ruidi%Tang%NULL%1, Nanshan%Zhong%NULL%0, Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0, Yuan%Yu%NULL%0, Jiqian%Xu%NULL%0, Huaqing%Shu%NULL%0, Jia'an%Xia%NULL%0, Hong%Liu%NULL%0, Yongran%Wu%NULL%0, Lu%Zhang%NULL%0, Zhui%Yu%NULL%0, Minghao%Fang%NULL%0, Ting%Yu%NULL%0, Yaxin%Wang%NULL%0, Shangwen%Pan%NULL%0, Xiaojing%Zou%NULL%0, Shiying%Yuan%NULL%0, You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coronavirus disease 2019 (COVID‐19) has become a serious public health problem worldwide.
+ Here, we stratified COVID‐19 patients based on their comorbidities to assess their risk of serious adverse outcomes.
+ We collected 856 hospitalized cases diagnosed with COVID‐19 from 17 January to 7 February 2020, in Zhejiang Province, and analyzed their comorbidities and composite endpoint (including admission to intensive care unit owing to disease progression, shock, invasive ventilation, and death) to determine the relationship between comorbidities and adverse outcomes.
+ The median age of patients was 46 (36‐56) years; 439 (51.3%) were men, 242 (28.3%) had comorbidities, and 152 (17.8%) had two or more comorbidities.
+ The most common comorbidity was hypertension (142 [16.6%]), followed by diabetes (64 [7.5%]).
+ Of the 856 patients, there are 154 (18.0%) severe cases.
+ Thirty‐two (3.7%) reached composite endpoints, of which 22 (9.1%) were from the comorbidity group and 10 (1.6%) from the non‐comorbidity group (P &amp;lt;  .
+001).
+ After adjusting for age and gender status, the risk of reaching the composite endpoint was higher in the group with comorbidity than in that without comorbidity (hazard ratio [HR] 3.04, 95% confidence interval [CI]: 1.40‐6.60).
+ HR values for patients with one, two, and three or more comorbidities were 1.61 (95% CI: 0.44‐5.91), 3.44 (95% CI: 1.31‐9.08), and 6.90 (95% CI: 2.69‐17.69), respectively.
+ COVID‐19 patients with comorbidities had worse clinical outcomes as compared with those without any comorbidity.
+ The higher the number of comorbidities, the greater was the risk of serious adverse outcomes.
+</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%0, Shanyan%Zhang%NULL%0, Xiaoli%Zhang%NULL%0, Huan%Cai%NULL%0, Jueqing%Gu%NULL%0, Jiangshan%Lian%NULL%0, Yingfeng%Lu%NULL%0, Hongyu%Jia%NULL%0, Jianhua%Hu%NULL%0, Ciliang%Jin%NULL%0, Guodong%Yu%NULL%0, Yimin%Zhang%NULL%0, Jifang%Sheng%NULL%0, Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+id="Par1"&gt;A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
+ The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
+Methods
+id="Par2"&gt;A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
+Results
+id="Par3"&gt;A total of 226 patients were included.
+ Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
+ The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
+ Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
+ Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
+ Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
+ By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
+Conclusions
+id="Par4"&gt;Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
+ COVID-19 poses a great strain on critical care resources in hospitals.
+Trial registration
+id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
+chictr.
+org.
+cn/edit.
+aspx?pid=49983&amp;amp;htm=4
+</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0, Dan%Xu%NULL%0, Shouzhi%Fu%NULL%0, Jun%Zhang%NULL%0, Xiaobo%Yang%NULL%0, Liang%Xu%NULL%0, Jiqian%Xu%NULL%0, Yongran%Wu%NULL%0, Chaolin%Huang%NULL%0, Yaqi%Ouyang%NULL%0, Luyu%Yang%NULL%0, Minghao%Fang%NULL%0, Hongwen%Xiao%NULL%0, Jing%Ma%NULL%0, Wei%Zhu%NULL%0, Song%Hu%NULL%0, Quan%Hu%NULL%0, Daoyin%Ding%NULL%0, Ming%Hu%NULL%0, Guochao%Zhu%NULL%0, Weijiang%Xu%NULL%0, Jun%Guo%NULL%0, Jinglong%Xu%NULL%0, Haitao%Yuan%NULL%0, Bin%Zhang%NULL%0, Zhui%Yu%yuzhui@whu.edu.cn%0, Dechang%Chen%icudechangchen@163.com%0, Shiying%Yuan%yuan_shiying@163.com%0, You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective: This study evaluated the clinical and epidemiological characteristics of patients with confirmed coronavirus disease 2019 (COVID-19).
+</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0, Hao-Yu%Gao%NULL%1, Zi-Yi%Feng%NULL%1, Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>Frontiers Media S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective: This study summarizes and compares clinical and laboratory characteristics of 34 patients admitted to the intensive care unit (ICU) for complications from coronavirus disease 2019 (COVID-19) at the First Affiliated Hospital, School of Medicine, Zhejiang University, Hangzhou, China from Jan.
+ 22 to Mar.
+ 5, 2020. Methods: A total of 34 patients were divided into two groups, including those who required noninvasive ventilation (NIV) and invasive mechanical ventilation (IMV) with additional extracorporeal membrane oxygenation (ECMO) in 11 patients.
+ Clinical features of COVID-19 patients were described and the parameters of clinical characteristics between the two groups were compared.
+ Results: The rates of the acute cardiac and kidney complications were higher in IMV cases than those in NIV cases.
+ Most patients had lymphocytopenia on admission, with lymphocyte levels dropping progressively on the following days, and the more severe lymphopenia developed in the IMV group.
+ In both groups, T lymphocyte counts were below typical lower limit norms compared to B lymphocytes.
+ On admission, both groups had higher than expected amounts of plasma interleukin-6 (IL-6), which over time declined more in NIV patients.
+ The prothrombin time was increased and the levels of platelet, hemoglobin, blood urea nitrogen (BUN), D-dimer, lactate dehydrogenase (LDH), and IL-6 were higher in IMV cases compared with NIV cases during hospitalization.
+ Conclusions: Data showed that the rates of complications, dynamics of lymphocytopenia, and changes in levels of platelet, hemoglobin, BUN, D-dimer, LDH and IL-6, and prothrombin time in these ICU patients were significantly different between IMV and NIV cases.
+</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0, Li-jun%Sun%NULL%2, Mi%Xu%NULL%2, Jian%Pan%NULL%2, Yun-tao%Zhang%NULL%2, Xue-ling%Fang%NULL%2, Qiang%Fang%NULL%3, Hong-liu%Cai%NULL%2]</t>
+  </si>
+  <si>
+    <t>Zhejiang University Press</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%0, Ziqiang%Du%NULL%1, Yanfang%Zhu%NULL%1, Wenfeng%Li%NULL%1, Hongjun%Miao%NULL%1, Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier España, S.L.U.</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0, Sarah%Al-Youha%sarahalyouha@gmail.com%0, Mohammad H.%Jamal%NULL%0, Mohannad%Al-Haddad%NULL%0, Ali%Al-Muhaini%NULL%0, Fahad%Al-Ghimlas%NULL%0, Salman%Al-Sabah%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+id="Par1"&gt;Coronavirus Disease 2019 (Covid-19) is expanding worldwide.
+ The characteristics of this infection in patients varies from country to country.
+ To move forward, clinical data on infected patients are needed.
+ Here, we report a comparison between fatalities and recovery of patients with severe Covid-19, based on demographic and clinical characteristics.
+Methods
+id="Par2"&gt;Between 5 March and 12 May 2020 in Mashhad, Iran, 1278 of 4000 suspected Covid-19 patients were confirmed positive by real-time reverse-transcriptase–polymerase-chain-reaction assay of upper respiratory specimens.
+ We compared the demographic, exposure history and clinical symptoms of 925 survivors and 353 fatal cases with confirmed disease.
+Results
+id="Par3"&gt;Mean (SD) age for all confirmed patients was 56.9 (18.7) years, 67.1 (15.9) years in fatal cases and 53.0 (18.3) years in survivors.
+ Multivariate logistic regression analysis showed that the outcome of patients was associated with age (odds ratio = 1.049, P = 0.0001, 95% CI = 1.040–1.057).
+ Despite a high burden of Covid-19 infections in the 30–39 and 40–49 year age groups, most of these (89.6 and 87.2%, respectively) recovered.
+ The median (IQR) duration of hospitalization was 9.0 (6.0–14.0) days.
+ The most prevalent co-morbidities were cardiovascular disorders (21%) and diabetes (16.3%).
+ Dyspnoea (72.7%), cough (68.1%) and fever (63.8%) were the most frequent clinical symptoms.
+ Healthcare workers, of whom two (3%) died, comprised 5.2% of infected cases.
+ Combination antiviral and antibiotic therapy was used in 43.0% of cases.
+Conclusions
+id="Par4"&gt;The characteristics of severe Covid-19 varied substantially between fatal cases and survivors, with diabetes and cardiovascular disorders the most prevalent co-morbidities.
+ In contrast to other studies, there were a higher number of fatalities in younger patients in our setting.
+Supplementary Information
+The online version contains supplementary material available at 10.1186/s12879-021-06363-6.
+</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%0, Mina%Akbari Rad%NULL%1, Robert%Bergquist%NULL%1, Abolghasem%Allahyari%NULL%1, Kamila%Hashemzadeh%NULL%1, Nasrin%Milani%NULL%1, Mahdi%Gholian-Aval%NULL%1, Fariba%Rezaeitalab%NULL%1, Mohammad Jafar%Sadeghi Quchani%NULL%1, Zahra%Nahbandani%NULL%1, Mandana%Khodashahi%NULL%1, Zahra%Javid%NULL%1, Mahnaz%Mozdourian%NULL%1, Mohammad Ali%Yaghoubi%NULL%1, Zahra%Mozaheb%NULL%1, Mohsen%Seddigh-Shamsi%NULL%1, Mohammad%Moeini Nodeh%NULL%1, Shima%Nabavi%NULL%1, Hooman%Mosannen Mozaffari%NULL%1, Mohammadreza%Farzanehfar%NULL%1, Zahra%Lotfi%NULL%0, Alireza%Shariati%NULL%1, Shekoofe%Bonakdaran%NULL%1, Zahra%Rezaieyazdi%NULL%1, Zahra%Mirfeizi%NULL%1, Maryam%Miri%NULL%1, Reza%Bassiri%NULL%1, Sajjad%Ataei Azimi%NULL%1, Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3, Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0, Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%0, Ibrahim%Al-Zakwani%NULL%1, Hamed%Al Naamani%NULL%1, Sultan%Al Lawati%NULL%1, Nenad%Pandak%NULL%1, Muna Ba%Omar%NULL%1, Maher%Al Bahrani%NULL%1, Zakaryia AL%Bulushi%NULL%1, Huda%Al Khalili%NULL%1, Issa%Al Salmi%NULL%1, Ruwaida%Al Ismaili%NULL%1, Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier Ltd on behalf of King Saud Bin Abdulaziz University for Health Sciences.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+id="Par1"&gt;In March 2020, the WHO declared the novel coronavirus (COVID-19) outbreak a global pandemic.
+ Although the number of infected cases is increasing, information about its clinical characteristics in the Middle East, especially in Iran, a country which is considered to be one of the most important focal points of the disease in the world, is lacking.
+ To date, there is no available literature on the clinical data on COVID-19 patients in Iran.
+Methods
+id="Par2"&gt;In this multicenter retrospective study, 113 hospitalized confirmed cases of COVID-19 admitted to university affiliated hospitals in Shiraz, Iran from February 20 to March 20 were entered in the study.
+Results
+id="Par3"&gt;The mean age was 53.75 years and 71 (62.8%) were males.
+ The most common symptoms at onset were fatigue (75: 66.4%), cough (73: 64.6%), and fever (67: 59.3%).
+ Laboratory data revealed significant correlation between lymphocyte count (P value = 0.003), partial thromboplastin time (P value = 0.000), international normalized ratio (P value = 0.000) with the severity of the disease.
+ The most common abnormality in chest CT scans was ground-glass opacity (77: 93.9%), followed by consolidation (48: 58.5%).
+ Our results revealed an overall 8% (9 out of 113 cases) mortality rate among patients, in which the majority was among patients admitted to the ICU (5: 55.6%).
+Conclusion
+id="Par4"&gt;Evaluating the clinical data of COVID-19 patients and finding the source of infection and studying the behavior of the disease is crucial for understanding the pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%0, Zohre%Khodamoradi%NULL%1, Amirhossein%Erfani%NULL%1, Hamidreza%Hosseinpour%NULL%1, Keivan%Ranjbar%NULL%1, Yasaman%Emami%NULL%1, Alireza%Mirahmadizadeh%NULL%1, Mehrzad%Lotfi%NULL%1, Babak%Shirazi Yeganeh%NULL%1, Abolfazl%Dorrani Nejad%NULL%1, Abdolrasool%Hemmati%NULL%1, Mostafa%Ebrahimi%NULL%1, Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+id="Par1"&gt;Acute kidney injury (AKI) is a severe complication of coronavirus disease-2019 (COVID-19).
+ This study aims to evaluate incidence, risk factors and case-fatality rate of AKI in patients with COVID-19.
+Methods
+id="Par2"&gt;We reviewed the health medical records of 307 consecutive patients with COVID-19 hospitalized at the University Hospital of Modena, Italy.
+Results
+id="Par3"&gt;AKI was diagnosed in 69 out of 307 (22.4%) COVID-19 patients.
+ Stages 1, 2, or 3 AKI accounted for 57.9%, 24.6% and 17.3%, respectively.
+ AKI patients had a mean age of 74.7 ± 9.9 years.
+ These patients showed higher serum levels of the main markers of inflammation and higher rate of severe pneumonia than non-AKI patients.
+ Kidney injury was associated with a higher rate of urinary abnormalities including proteinuria (0.44 ± 0.85 vs 0.18 ± 0.29 mg/mg; P =  &amp;lt; 0.0001) and microscopic hematuria (P = 0.032) compared to non-AKI patients.
+ Hemodialysis was performed in 7.2% of the subjects and 33.3% of the survivors did not recover kidney function after AKI.
+ Risk factors for kidney injury were age, male sex, CKD and higher non-renal SOFA score.
+ Patients with AKI had a mortality rate of 56.5%.
+ Adjusted Cox regression analysis revealed that COVID-19-associated AKI was independently associated with in-hospital death (hazard ratio [HR] = 4.82; CI 95%, 1.36–17.08) compared to non-AKI patients.
+Conclusion
+id="Par4"&gt;AKI was a common and harmful consequence of COVID-19. It manifested with urinary abnormalities (proteinuria, microscopic hematuria) and conferred an increased risk for death.
+ Given the well-known short-term sequelae of AKI, prevention of kidney injury is imperative in this vulnerable cohort of patients.
+Supplementary Information
+The online version contains supplementary material available at 10.1007/s10157-021-02092-x.
+</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%0, Annachiara%Ferrari%NULL%2, Annachiara%Ferrari%NULL%0, Francesco%Fontana%NULL%1, Giacomo%Mori%NULL%1, Riccardo%Magistroni%NULL%1, Marianna%Meschiari%NULL%1, Erica%Franceschini%NULL%1, Marianna%Menozzi%NULL%1, Gianluca%Cuomo%NULL%1, Gabriella%Orlando%NULL%1, Antonella%Santoro%NULL%1, Margherita%Digaetano%NULL%1, Cinzia%Puzzolante%NULL%1, Federica%Carli%NULL%1, Andrea%Bedini%NULL%1, Jovana%Milic%NULL%1, Irene%Coloretti%NULL%1, Paolo%Raggi%NULL%1, Cristina%Mussini%NULL%1, Massimo%Girardis%NULL%1, Gianni%Cappelli%NULL%1, Giovanni%Guaraldi%NULL%1, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Springer Singapore</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%0, Silvia%Bettini%NULL%2, Silvia%Bettini%NULL%0, Roberto%Fabris%NULL%1, Roberto%Serra%NULL%2, Chiara%Dal Pra%NULL%1, Pietro%Maffei%NULL%1, Marco%Rossato%NULL%1, Paola%Fioretto%NULL%0, Roberto%Vettor%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;Invasive mechanical ventilation (IMV) is the standard treatment in critically ill COVID-19 patients with acute severe respiratory distress syndrome (ARDS).
+ When IMV setting is extremely aggressive, especially through the application of high positive-end-expiratory respiration (PEEP) values, lung damage can occur.
+ Until today, in COVID-19 patients, two types of ARDS were identified (L- and H-type); for the L-type, a lower PEEP strategy was supposed to be preferred, but data are still missing.
+ The aim of this study was to evaluate if a clinical management with lower PEEP values in critically ill L-type COVID-19 patients was safe and efficient in comparison to usual standard of care.
+ A retrospective analysis was conducted on consecutive patients with COVID-19 ARDS admitted to the ICU and treated with IMV.
+ Patients were treated with a lower PEEP strategy adapted to BMI: PEEP 10 cmH2O if BMI &amp;lt; 30 kg m−2, PEEP 12 cmH2O if BMI 30–50 kg m−2, PEEP 15 cmH2O if BMI &amp;gt; 50 kg m−2.
+ Primary endpoint was the PaO2/FiO2 ratio evolution during the first 3 IMV days; secondary endpoints were to analyze ICU length of stay (LOS) and IMV length.
+ From March 2 to January 15, 2021, 79 patients underwent IMV.
+ Average applied PEEP was 11 ± 2.9 cmH2O for BMI &amp;lt; 30 kg m−2 and 16 ± 3.18 cmH2O for BMI &amp;gt; 30 kg m−2.
+ During the first 24 h of IMV, patients’ PaO2/FiO2 ratio presented an improvement (p&amp;lt;0.001; CI 99%) that continued daily up to 72 h (p&amp;lt;0.001; CI 99%).
+ Median ICU LOS was 15 days (10–28); median duration of IMV was 12 days (8–26).
+ The ICU mortality rate was 31.6%.
+ Lower PEEP strategy treatment in L-type COVID-19 ARDS resulted in a PaO2/FiO2 ratio persistent daily improvement during the first 72 h of IMV.
+ A lower PEEP strategy could be beneficial in the first phase of ARDS in critically ill COVID-19 patients.
+</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%0, Marco%Roncador%NULL%2, Marco%Roncador%NULL%0, Andrea%Saporito%NULL%1, Maira%Biggiogero%NULL%1, Andrea%Glotta%NULL%1, Pier Andrea%Maida%NULL%1, Patrizia%Urso%NULL%1, Giovanni%Bona%NULL%1, Christian%Garzoni%NULL%1, Romano%Mauri%NULL%0, Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0, Anna Lisa%Ridolfo%NULL%4, Laura%Milazzo%NULL%2, Letizia%Oreni%NULL%4, Dario%Bernacchia%NULL%4, Matteo%Siano%NULL%4, Cecilia%Bonazzetti%NULL%2, Alice%Covizzi%NULL%2, Marco%Schiuma%NULL%2, Matteo%Passerini%NULL%2, Marco%Piscaglia%NULL%2, Massimo%Coen%NULL%2, Guido%Gubertini%NULL%2, Giuliano%Rizzardini%NULL%4, Chiara%Cogliati%NULL%0, Anna Maria%Brambilla%NULL%2, Riccardo%Colombo%NULL%0, Antonio%Castelli%NULL%2, Roberto%Rech%NULL%2, Agostino%Riva%NULL%2, Alessandro%Torre%NULL%2, Luca%Meroni%NULL%2, Stefano%Rusconi%NULL%4, Spinello%Antinori%NULL%5, Massimo%Galli%NULL%7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;Critically ill patients with COVID-19 pneumonia suffered both high thrombotic and bleeding risk.
+ The effect of SARS-CoV-2 on coagulation and fibrinolysis is not well known.
+ We conducted a retrospective study of critically ill patients admitted to an intensive care unit (ICU) a cause of severe COVID-19 pneumonia and we evaluated coagulation function using rotational thromboelastometry (ROTEM) on day of admission (T0) and 5 (T5) and 10 (T10) days after admission to ICU.
+ Coagulation standard parameters were also evaluated.
+ Forty patients were enrolled into the study.
+ The ICU and the hospital mortality were 10% and 12.5%, respectively.
+ On ICU admission, prothrombin time was slightly reduced and it increased significantly at T10 (T0 = 65.1 ± 9.8 vs T10 = 85.7 ± 1.5, p = 0.002), while activated partial thromboplastin time and fibrinogen values were higher at T0 than T10 (32.2 ± 2.9 vs 27.2 ± 2.1, p = 0.017 and 895.1 ± 110 vs 332.5 ± 50, p = 0.002, respectively); moreover, whole blood thromboelastometry profiles were consistent with hypercoagulability characterized by an acceleration of the propagation phase of blood clot formation [i.
+e.
+, CFT below the lower limit in INTEM 16/40 patients (40%) and EXTEM 20/40 patients (50%)] and significant higher clot strength [MCF above the upper limit in INTEM 20/40 patients (50%), in EXTEM 28/40 patients (70%) and in FIBTEM 29/40 patients (72.5%)]; however, this hypercoagulable state persists in the first five days, but it decreases ten day after, without returning to normal values.
+ No sign of secondary hyperfibrinolysis or sepsis induced coagulopathy (SIC) were found during the study period.
+ In six patients (15%) a deep vein thrombosis and in 2 patients (5%) a thromboembolic event, were found; 12 patients (30%) had a catheter-related thrombosis.
+ ROTEM analysis confirms that patients with severe COVID-19 pneumonia had a hypercoagulation state that persisted over time.
+</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%0, Lara%Gianesello%gianesello.lara@libero.it%1, Maddalena%Pazzi%NULL%2, Maddalena%Pazzi%NULL%0, Caterina%Stera%NULL%1, Tommaso%Meconi%NULL%1, Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>Springer US</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%0, Andrea%Dalbeni%NULL%2, Andrea%Dalbeni%NULL%0, Elia%Vettore%NULL%2, Elia%Vettore%NULL%0, Devis%Benfaremo%NULL%1, Massimo%Mattioli%NULL%1, Carmine G.%Gambino%NULL%1, Viviana%Framba%NULL%2, Viviana%Framba%NULL%0, Lorenzo%Cerruti%NULL%1, Anna%Mantovani%NULL%1, Andrea%Martini%NULL%1, Michele M.%Luchetti%NULL%1, Roberto%Serra%NULL%0, Annamaria%Cattelan%NULL%1, Roberto%Vettor%NULL%0, Paolo%Angeli%NULL%1, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%0, Matthaios%Papadimitriou-Olivgeris%NULL%2, Matthaios%Papadimitriou-Olivgeris%NULL%0, Raphaël%Burger%NULL%1, Marie-Annick%Le Pogam%NULL%1, Tapio%Niemi%NULL%2, Tapio%Niemi%NULL%0, Paraskevas%Filippidis%NULL%1, Jonathan%Tschopp%NULL%1, Florian%Desgranges%NULL%1, Benjamin%Viala%NULL%1, Eleftheria%Kampouri%NULL%1, Laurence%Rochat%NULL%2, Laurence%Rochat%NULL%0, David%Haefliger%NULL%1, Mehdi%Belkoniene%NULL%1, Carlos%Fidalgo%NULL%1, Antonios%Kritikos%NULL%1, Katia%Jaton%NULL%1, Laurence%Senn%NULL%1, Pierre-Alexandre%Bart%NULL%1, Jean-Luc%Pagani%NULL%2, Jean-Luc%Pagani%NULL%0, Oriol%Manuel%NULL%1, Loïc%Lhopitallier%NULL%1, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>Public Library of Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rationale: Initial reports of case fatality rates (CFRs) among adults with coronavirus disease (COVID-19) receiving invasive mechanical ventilation (IMV) are highly variable.
+</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%0, Ashwin%Subramaniam%NULL%2, Ashwin%Subramaniam%NULL%0, Mallikarjuna%Ponnapa Reddy%NULL%2, Mallikarjuna%Ponnapa Reddy%NULL%0, Gabriel%Blecher%NULL%1, Umesh%Kadam%NULL%2, Umesh%Kadam%NULL%0, Afsana%Afroz%NULL%1, Baki%Billah%NULL%1, Sushma%Ashwin%NULL%1, Mark%Kubicki%NULL%1, Federico%Bilotta%NULL%1, J. Randall%Curtis%NULL%2, J. Randall%Curtis%NULL%0, Francesca%Rubulotta%NULL%2, Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Thoracic Society</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0, Samuel L%Bruce%NULL%0, Cody L%Slater%NULL%0, Jonathan R%Tiao%NULL%0, Matthew R%Baldwin%NULL%0, R Graham%Barr%NULL%0, Bernard P%Chang%NULL%0, Katherine H%Chau%NULL%0, Justin J%Choi%NULL%0, Nicholas%Gavin%NULL%0, Parag%Goyal%NULL%0, Angela M%Mills%NULL%0, Ashmi A%Patel%NULL%0, Marie-Laure S%Romney%NULL%0, Monika M%Safford%NULL%0, Neil W%Schluger%NULL%0, Soumitra%Sengupta%NULL%0, Magdalena E%Sobieszczyk%NULL%0, Jason E%Zucker%NULL%0, Paul A%Asadourian%NULL%0, Fletcher M%Bell%NULL%0, Rebekah%Boyd%NULL%0, Matthew F%Cohen%NULL%0, MacAlistair I%Colquhoun%NULL%0, Lucy A%Colville%NULL%0, Joseph H%de Jonge%NULL%0, Lyle B%Dershowitz%NULL%0, Shirin A%Dey%NULL%0, Katherine A%Eiseman%NULL%0, Zachary P%Girvin%NULL%0, Daniella T%Goni%NULL%0, Amro A%Harb%NULL%0, Nicholas%Herzik%NULL%0, Sarah%Householder%NULL%0, Lara E%Karaaslan%NULL%0, Heather%Lee%NULL%0, Evan%Lieberman%NULL%0, Andrew%Ling%NULL%0, Ree%Lu%NULL%0, Arthur Y%Shou%NULL%0, Alexander C%Sisti%NULL%0, Zachary E%Snow%NULL%0, Colin P%Sperring%NULL%0, Yuqing%Xiong%NULL%0, Henry W%Zhou%NULL%0, Karthik%Natarajan%NULL%0, George%Hripcsak%NULL%0, Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0, Mark%Caridi-Scheible%NULL%0, James M.%Blum%NULL%0, Chad%Robichaux%NULL%0, Colleen%Kraft%NULL%0, Jesse T.%Jacob%NULL%0, Craig S.%Jabaley%NULL%0, David%Carpenter%NULL%0, Roberta%Kaplow%NULL%0, Alfonso C.%Hernandez-Romieu%NULL%0, Max W.%Adelman%NULL%0, Greg S.%Martin%NULL%0, Craig M.%Coopersmith%NULL%0, David J.%Murphy%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0, Bijan J.%Ghassemieh%NULL%0, Michelle%Nichols%NULL%0, Richard%Kim%NULL%0, Keith R.%Jerome%NULL%0, Arun K.%Nalla%NULL%0, Alexander L.%Greninger%NULL%0, Sudhakar%Pipavath%NULL%0, Mark M.%Wurfel%NULL%0, Laura%Evans%NULL%0, Patricia A.%Kritek%NULL%0, T. Eoin%West%NULL%0, Andrew%Luks%NULL%0, Anthony%Gerbino%NULL%0, Chris R.%Dale%NULL%0, Jason D.%Goldman%NULL%0, Shane%O’Mahony%NULL%0, Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0, Denise J%McCulloch%NULL%0, Denise J%McCulloch%NULL%0, Vidya%Atluri%NULL%0, Michela%Blain%NULL%0, Sarah A%McGuffin%NULL%0, Arun K%Nalla%NULL%0, Meei-Li%Huang%NULL%0, Alex L%Greninger%NULL%0, Keith R%Jerome%NULL%0, Seth A%Cohen%NULL%0, Santiago%Neme%NULL%0, Margaret L%Green%NULL%0, Helen Y%Chu%NULL%0, H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limited data are available on the clinical presentation and outcomes of coronavirus disease (COVID-19) patients in the United States hospitalized under normal-caseload or nonsurge conditions.
+ We retrospectively studied 72 consecutive adult patients hospitalized with COVID-19 in 2 hospitals in the San Francisco Bay area, California, USA, during March 13–April 11, 2020. The death rate for all hospitalized COVID-19 patients was 8.3%, and median length of hospitalization was 7.5 days.
+ Of the 21 (29% of total) intensive care unit patients, 3 (14.3% died); median length of intensive care unit stay was 12 days.
+ Of the 72 patients, 43 (59.7%) had underlying cardiovascular disease and 19 (26.4%) had underlying pulmonary disease.
+ In this study, death rates were lower than those reported from regions of the United States experiencing a high volume of COVID-19 patients.
+</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0, Joelle I.%Rosser%NULL%0, Orlando%Quintero%NULL%0, Jake%Scott%NULL%0, Aruna%Subramanian%NULL%0, Mohammad%Gumma%NULL%0, Angela%Rogers%NULL%0, Shanthi%Kappagoda%NULL%0]</t>
+  </si>
+  <si>
+    <t>Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This retrospective analysis from 5 Maryland and Washington, DC area hospitals determines factors on hospital admission predictive of severe disease or death from COVID-19 and describes patient trajectories and outcomes categorized using the WHO COVID-19 disease severity scale.
+</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0, Jacob%Fiksel%NULL%0, Jacob%Fiksel%NULL%0, John%Muschelli%NULL%0, John%Muschelli%NULL%0, Matthew L.%Robinson%NULL%0, Matthew L.%Robinson%NULL%0, Masoud%Rouhizadeh%NULL%0, Masoud%Rouhizadeh%NULL%0, Jamie%Perin%NULL%0, Jamie%Perin%NULL%0, Grant%Schumock%NULL%0, Grant%Schumock%NULL%0, Paul%Nagy%NULL%0, Paul%Nagy%NULL%0, Josh H.%Gray%NULL%0, Josh H.%Gray%NULL%0, Harsha%Malapati%NULL%0, Harsha%Malapati%NULL%0, Mariam%Ghobadi-Krueger%NULL%0, Mariam%Ghobadi-Krueger%NULL%0, Timothy M.%Niessen%NULL%0, Bo Soo%Kim%NULL%0, Peter M.%Hill%NULL%0, M. Shafeeq%Ahmed%NULL%0, Eric D.%Dobkin%NULL%0, Renee%Blanding%NULL%0, Jennifer%Abele%NULL%0, Bonnie%Woods%NULL%0, Kenneth%Harkness%NULL%0, David R.%Thiemann%NULL%0, Mary G.%Bowring%NULL%0, Aalok B.%Shah%NULL%0, Aalok B.%Shah%NULL%0, Mei-Cheng%Wang%NULL%0, Karen%Bandeen-Roche%NULL%0, Antony%Rosen%NULL%0, Scott L.%Zeger%NULL%0, Scott L.%Zeger%NULL%0, Amita%Gupta%NULL%0]</t>
+  </si>
+  <si>
+    <t>American College of Physicians</t>
+  </si>
+  <si>
+    <t>Characteristics and Clinical Outcomes of Adult Patients Hospitalized with COVID-19 — Georgia, March 2020</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%0, Karen K.%Wong%NULL%0, Christine M.%Szablewski%NULL%0, Priti R.%Patel%NULL%0, John%Rossow%NULL%0, Juliana%da Silva%NULL%0, Pavithra%Natarajan%NULL%0, Sapna Bamrah%Morris%NULL%0, Robyn Neblett%Fanfair%NULL%0, Jessica%Rogers-Brown%NULL%0, Beau B.%Bruce%NULL%0, Sean D.%Browning%NULL%0, Alfonso C.%Hernandez-Romieu%NULL%0, Nathan W.%Furukawa%NULL%0, Mohleen%Kang%NULL%0, Mary E.%Evans%NULL%0, Nadine%Oosmanally%NULL%0, Melissa%Tobin-D’Angelo%NULL%0, Cherie%Drenzek%NULL%0, David J.%Murphy%NULL%0, Julie%Hollberg%NULL%0, James M.%Blum%NULL%0, Robert%Jansen%NULL%0, David W.%Wright%NULL%0, William M.%Sewell%NULL%0, Jack D.%Owens%NULL%0, Benjamin%Lefkove%NULL%0, Frank W.%Brown%NULL%0, Deron C.%Burton%NULL%0, Timothy M.%Uyeki%NULL%0, Stephanie R.%Bialek%NULL%0, Brendan R.%Jackson%NULL%0]</t>
+  </si>
+  <si>
+    <t>PMC7737948</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0, Justin J.%Choi%NULL%0, Laura C.%Pinheiro%NULL%0, Edward J.%Schenck%NULL%0, Ruijun%Chen%NULL%0, Assem%Jabri%NULL%0, Michael J.%Satlin%NULL%0, Thomas R.%Campion%NULL%0, Musarrat%Nahid%NULL%0, Joanna B.%Ringel%NULL%0, Katherine L.%Hoffman%NULL%0, Mark N.%Alshak%NULL%0, Han A.%Li%NULL%0, Graham T.%Wehmeyer%NULL%0, Graham T.%Wehmeyer%NULL%0, Mangala%Rajan%NULL%0, Evgeniya%Reshetnyak%NULL%0, Nathaniel%Hupert%NULL%0, Evelyn M.%Horn%NULL%0, Fernando J.%Martinez%NULL%0, Roy M.%Gulick%NULL%0, Monika M.%Safford%NULL%0, Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0, Simon A%Jones%NULL%0, Jie%Yang%NULL%0, Harish%Rajagopalan%NULL%0, Luke%O’Donnell%NULL%0, Yelena%Chernyak%NULL%0, Katie A%Tobin%NULL%0, Robert J%Cerfolio%NULL%0, Fritz%Francois%NULL%0, Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0, Anatoly%Mitrokhin%NULL%2, Anatoly%Mitrokhin%NULL%0, Ajai%Rajabalan%NULL%1, Christian%Benjamin%NULL%1, Sushma%Raviralla%NULL%1, Vishnu R%Mani%vishnu.mani@duke.edu%2, Vishnu R%Mani%vishnu.mani@duke.edu%0, Aleksandr%Kalabin%NULL%2, Aleksandr%Kalabin%NULL%0, Sebastian C%Valdivieso%NULL%2, Sebastian C%Valdivieso%NULL%0, Max%Murray-Ramcharan%NULL%2, Max%Murray-Ramcharan%NULL%0, Brian%Donaldson%NULL%2, Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>JMIR Publications</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%0, Damianos G.%Kokkinidis%NULL%1, Weijia%Li%NULL%1, Dimitrios%Karamanis%NULL%1, Jennifer%Ognibene%NULL%1, Shitij%Arora%NULL%1, William N.%Southern%NULL%1, Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%0, Jesus D.%Gonzalez-Lugo%NULL%1, Shafia%Rahman%NULL%1, Mohammad%Barouqa%NULL%1, James%Szymanski%NULL%1, Kenji%Ikemura%NULL%1, Yungtai%Lo%NULL%1, Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0, Viet-Thi%Tran%NULL%4, Viet-Thi%Tran%NULL%0, Mathilde%Roumier%NULL%2, Amélie%Chabrol%NULL%2, Romain%Paule%NULL%2, Constance%Guillaud%NULL%2, Elena%Fois%NULL%2, Raphael%Lepeule%NULL%2, Tali-Anne%Szwebel%NULL%2, François-Xavier%Lescure%NULL%0, Frédéric%Schlemmer%NULL%2, Marie%Matignon%NULL%2, Mehdi%Khellaf%NULL%2, Etienne%Crickx%NULL%2, Benjamin%Terrier%NULL%2, Caroline%Morbieu%NULL%2, Paul%Legendre%NULL%2, Julien%Dang%NULL%2, Yoland%Schoindre%NULL%2, Jean-Michel%Pawlotsky%NULL%2, Marc%Michel%NULL%2, Elodie%Perrodeau%NULL%2, Nicolas%Carlier%NULL%2, Nicolas%Roche%NULL%2, Victoire%de Lastours%NULL%2, Clément%Ourghanlian%NULL%2, Solen%Kerneis%NULL%2, Philippe%Ménager%NULL%2, Luc%Mouthon%NULL%2, Etienne%Audureau%NULL%2, Philippe%Ravaud%NULL%2, Bertrand%Godeau%NULL%2, Sébastien%Gallien%NULL%2, Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>Severe cases of coronavirus disease 2019 (COVID-19) are regularly complicated by respiratory failure.
+ Although it has been suggested that elevated levels of blood neutrophils associate with worsening oxygenation in COVID-19, it is unknown whether neutrophils are drivers of the thrombo-inflammatory storm or simple bystanders.
+ To better understand the potential role of neutrophils in COVID-19, we measured levels of the neutrophil activation marker S100A8/A9 (calprotectin) in hospitalized patients and determined its relationship to severity of illness and respiratory status.
+ Patients with COVID-19 (n = 172) had markedly elevated levels of calprotectin in their blood.
+ Calprotectin tracked with other acute phase reactants including C-reactive protein, ferritin, lactate dehydrogenase, and absolute neutrophil count, but was superior in identifying patients requiring mechanical ventilation.
+ In longitudinal samples, calprotectin rose as oxygenation worsened.
+ When tested on day 1 or 2 of hospitalization (n = 94 patients), calprotectin levels were significantly higher in patients who progressed to severe COVID-19 requiring mechanical ventilation (8039 ± 7031 ng/ml, n = 32) as compared to those who remained free of intubation (3365 ± 3146, P &amp;lt; 0.0001).
+ In summary, serum calprotectin levels track closely with current and future COVID-19 severity, implicating neutrophils as potential perpetuators of inflammation and respiratory compromise in COVID-19.</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%0, Yu%Zuo%NULL%1, Srilakshmi%Yalavarthi%NULL%1, Kelsey%Gockman%NULL%1, Melanie%Zuo%NULL%1, Jacqueline A%Madison%NULL%1, Christopher%Blair%NULL%1, Wrenn%Woodward%NULL%1, Sean P%Lezak%NULL%1, Njira L%Lugogo%NULL%1, Robert J%Woods%NULL%1, Christian%Lood%NULL%1, Jason S%Knight%NULL%2, Jason S%Knight%NULL%0, Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%0, Raef A.%Fadel%NULL%1, Kelly M.%Malette%NULL%1, Charles%Hammond%NULL%1, Hafsa%Abdulla%NULL%1, Abigail%Entz%NULL%1, Zachary%Demertzis%NULL%1, Zachary%Hanna%NULL%1, Andrew%Failla%NULL%1, Carina%Dagher%NULL%0, Zohra%Chaudhry%NULL%0, Amit%Vahia%NULL%0, Odaliz%Abreu Lanfranco%NULL%1, Mayur%Ramesh%NULL%1, Marcus J.%Zervos%NULL%0, George%Alangaden%NULL%0, Joseph%Miller%NULL%0, Indira%Brar%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Medical Association</t>
   </si>
 </sst>
 </file>
@@ -4312,25 +5019,25 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>1038</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>590</v>
+        <v>88</v>
       </c>
       <c r="J2" t="s">
         <v>88</v>
@@ -4344,22 +5051,22 @@
         <v>43952</v>
       </c>
       <c r="C3" t="s">
-        <v>981</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>1039</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>1040</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>984</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>985</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s">
         <v>88</v>
@@ -4382,7 +5089,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>1041</v>
+        <v>1175</v>
       </c>
       <c r="F4" t="s">
         <v>89</v>
@@ -4394,10 +5101,10 @@
         <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>592</v>
+        <v>88</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4411,10 +5118,10 @@
         <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>1177</v>
       </c>
       <c r="E5" t="s">
-        <v>1042</v>
+        <v>1178</v>
       </c>
       <c r="F5" t="s">
         <v>94</v>
@@ -4426,10 +5133,10 @@
         <v>95</v>
       </c>
       <c r="I5" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -4443,10 +5150,10 @@
         <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>1180</v>
       </c>
       <c r="E6" t="s">
-        <v>1043</v>
+        <v>1181</v>
       </c>
       <c r="F6" t="s">
         <v>97</v>
@@ -4458,10 +5165,10 @@
         <v>98</v>
       </c>
       <c r="I6" t="s">
-        <v>592</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4475,10 +5182,10 @@
         <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>1182</v>
       </c>
       <c r="E7" t="s">
-        <v>1044</v>
+        <v>1183</v>
       </c>
       <c r="F7" t="s">
         <v>101</v>
@@ -4490,10 +5197,10 @@
         <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -4510,7 +5217,7 @@
         <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>1045</v>
+        <v>1185</v>
       </c>
       <c r="F8" t="s">
         <v>104</v>
@@ -4522,10 +5229,10 @@
         <v>86</v>
       </c>
       <c r="I8" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4536,25 +5243,25 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>1046</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="I9" t="s">
-        <v>590</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
         <v>88</v>
@@ -4571,10 +5278,10 @@
         <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>1187</v>
       </c>
       <c r="E10" t="s">
-        <v>1047</v>
+        <v>1188</v>
       </c>
       <c r="F10" t="s">
         <v>110</v>
@@ -4586,10 +5293,10 @@
         <v>111</v>
       </c>
       <c r="I10" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s">
-        <v>88</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -4606,7 +5313,7 @@
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>1048</v>
+        <v>1190</v>
       </c>
       <c r="F11" t="s">
         <v>114</v>
@@ -4618,10 +5325,10 @@
         <v>115</v>
       </c>
       <c r="I11" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -4635,10 +5342,10 @@
         <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>262</v>
+        <v>1191</v>
       </c>
       <c r="E12" t="s">
-        <v>1049</v>
+        <v>1192</v>
       </c>
       <c r="F12" t="s">
         <v>117</v>
@@ -4650,10 +5357,10 @@
         <v>118</v>
       </c>
       <c r="I12" t="s">
-        <v>592</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s">
-        <v>88</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -4667,10 +5374,10 @@
         <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>1194</v>
       </c>
       <c r="E13" t="s">
-        <v>1050</v>
+        <v>1195</v>
       </c>
       <c r="F13" t="s">
         <v>121</v>
@@ -4682,10 +5389,10 @@
         <v>122</v>
       </c>
       <c r="I13" t="s">
-        <v>603</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s">
-        <v>88</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -4699,10 +5406,10 @@
         <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>1197</v>
       </c>
       <c r="E14" t="s">
-        <v>1051</v>
+        <v>1198</v>
       </c>
       <c r="F14" t="s">
         <v>125</v>
@@ -4714,10 +5421,10 @@
         <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s">
-        <v>88</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -4728,22 +5435,22 @@
         <v>43920</v>
       </c>
       <c r="C15" t="s">
-        <v>997</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>1052</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>1053</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>984</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s">
-        <v>1000</v>
+        <v>86</v>
       </c>
       <c r="I15" t="s">
         <v>88</v>
@@ -4760,28 +5467,28 @@
         <v>44075</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
         <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
-        <v>718</v>
+        <v>86</v>
       </c>
       <c r="I16" t="s">
         <v>88</v>
       </c>
       <c r="J16" t="s">
-        <v>719</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -4798,7 +5505,7 @@
         <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>1054</v>
+        <v>1199</v>
       </c>
       <c r="F17" t="s">
         <v>128</v>
@@ -4810,10 +5517,10 @@
         <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>603</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s">
-        <v>88</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -4827,10 +5534,10 @@
         <v>129</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>1201</v>
       </c>
       <c r="E18" t="s">
-        <v>1055</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="s">
         <v>131</v>
@@ -4842,10 +5549,10 @@
         <v>132</v>
       </c>
       <c r="I18" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s">
-        <v>88</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -4856,28 +5563,28 @@
         <v>43942</v>
       </c>
       <c r="C19" t="s">
-        <v>253</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
         <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s">
-        <v>723</v>
+        <v>86</v>
       </c>
       <c r="I19" t="s">
         <v>88</v>
       </c>
       <c r="J19" t="s">
-        <v>724</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -4891,10 +5598,10 @@
         <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>263</v>
+        <v>1204</v>
       </c>
       <c r="E20" t="s">
-        <v>1056</v>
+        <v>1205</v>
       </c>
       <c r="F20" t="s">
         <v>134</v>
@@ -4906,10 +5613,10 @@
         <v>135</v>
       </c>
       <c r="I20" t="s">
-        <v>592</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s">
-        <v>88</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -4923,10 +5630,10 @@
         <v>136</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>1206</v>
       </c>
       <c r="E21" t="s">
-        <v>1057</v>
+        <v>1207</v>
       </c>
       <c r="F21" t="s">
         <v>138</v>
@@ -4938,10 +5645,10 @@
         <v>139</v>
       </c>
       <c r="I21" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s">
-        <v>88</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -4955,10 +5662,10 @@
         <v>140</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>1209</v>
       </c>
       <c r="E22" t="s">
-        <v>1058</v>
+        <v>1210</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -4970,10 +5677,10 @@
         <v>143</v>
       </c>
       <c r="I22" t="s">
-        <v>592</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s">
-        <v>88</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -4990,7 +5697,7 @@
         <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>1059</v>
+        <v>1212</v>
       </c>
       <c r="F23" t="s">
         <v>146</v>
@@ -5002,10 +5709,10 @@
         <v>85</v>
       </c>
       <c r="I23" t="s">
-        <v>603</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s">
-        <v>88</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -5022,7 +5729,7 @@
         <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>1060</v>
+        <v>1214</v>
       </c>
       <c r="F24" t="s">
         <v>149</v>
@@ -5034,10 +5741,10 @@
         <v>150</v>
       </c>
       <c r="I24" t="s">
-        <v>603</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s">
-        <v>88</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -5051,10 +5758,10 @@
         <v>151</v>
       </c>
       <c r="D25" t="s">
-        <v>264</v>
+        <v>1216</v>
       </c>
       <c r="E25" t="s">
-        <v>1061</v>
+        <v>1217</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -5066,10 +5773,10 @@
         <v>153</v>
       </c>
       <c r="I25" t="s">
-        <v>592</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s">
-        <v>88</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -5086,7 +5793,7 @@
         <v>155</v>
       </c>
       <c r="E26" t="s">
-        <v>1062</v>
+        <v>1218</v>
       </c>
       <c r="F26" t="s">
         <v>156</v>
@@ -5098,10 +5805,10 @@
         <v>157</v>
       </c>
       <c r="I26" t="s">
-        <v>603</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s">
-        <v>88</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -5115,10 +5822,10 @@
         <v>158</v>
       </c>
       <c r="D27" t="s">
-        <v>265</v>
+        <v>1220</v>
       </c>
       <c r="E27" t="s">
-        <v>1063</v>
+        <v>1221</v>
       </c>
       <c r="F27" t="s">
         <v>159</v>
@@ -5130,10 +5837,10 @@
         <v>91</v>
       </c>
       <c r="I27" t="s">
-        <v>592</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s">
-        <v>88</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -5147,10 +5854,10 @@
         <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>266</v>
+        <v>1222</v>
       </c>
       <c r="E28" t="s">
-        <v>1064</v>
+        <v>1223</v>
       </c>
       <c r="F28" t="s">
         <v>161</v>
@@ -5162,10 +5869,10 @@
         <v>162</v>
       </c>
       <c r="I28" t="s">
-        <v>592</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s">
-        <v>88</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -5182,7 +5889,7 @@
         <v>164</v>
       </c>
       <c r="E29" t="s">
-        <v>1065</v>
+        <v>1225</v>
       </c>
       <c r="F29" t="s">
         <v>165</v>
@@ -5194,10 +5901,10 @@
         <v>166</v>
       </c>
       <c r="I29" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s">
-        <v>88</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -5211,10 +5918,10 @@
         <v>167</v>
       </c>
       <c r="D30" t="s">
-        <v>267</v>
+        <v>1226</v>
       </c>
       <c r="E30" t="s">
-        <v>1066</v>
+        <v>1227</v>
       </c>
       <c r="F30" t="s">
         <v>168</v>
@@ -5226,10 +5933,10 @@
         <v>169</v>
       </c>
       <c r="I30" t="s">
-        <v>592</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s">
-        <v>88</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -5246,7 +5953,7 @@
         <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>1067</v>
+        <v>1228</v>
       </c>
       <c r="F31" t="s">
         <v>171</v>
@@ -5258,10 +5965,10 @@
         <v>172</v>
       </c>
       <c r="I31" t="s">
-        <v>603</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s">
-        <v>88</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -5272,25 +5979,25 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="E32" t="s">
-        <v>1068</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s">
         <v>86</v>
       </c>
       <c r="I32" t="s">
-        <v>606</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s">
         <v>88</v>
@@ -5307,10 +6014,10 @@
         <v>173</v>
       </c>
       <c r="D33" t="s">
-        <v>268</v>
+        <v>1229</v>
       </c>
       <c r="E33" t="s">
-        <v>1069</v>
+        <v>1230</v>
       </c>
       <c r="F33" t="s">
         <v>174</v>
@@ -5322,10 +6029,10 @@
         <v>86</v>
       </c>
       <c r="I33" t="s">
-        <v>592</v>
+        <v>88</v>
       </c>
       <c r="J33" t="s">
-        <v>88</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -5342,7 +6049,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>1070</v>
+        <v>1232</v>
       </c>
       <c r="F34" t="s">
         <v>177</v>
@@ -5354,10 +6061,10 @@
         <v>178</v>
       </c>
       <c r="I34" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J34" t="s">
-        <v>88</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -5374,7 +6081,7 @@
         <v>180</v>
       </c>
       <c r="E35" t="s">
-        <v>1071</v>
+        <v>1233</v>
       </c>
       <c r="F35" t="s">
         <v>181</v>
@@ -5386,10 +6093,10 @@
         <v>182</v>
       </c>
       <c r="I35" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s">
-        <v>88</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -5403,10 +6110,10 @@
         <v>183</v>
       </c>
       <c r="D36" t="s">
-        <v>184</v>
+        <v>1235</v>
       </c>
       <c r="E36" t="s">
-        <v>1072</v>
+        <v>1236</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
@@ -5418,10 +6125,10 @@
         <v>186</v>
       </c>
       <c r="I36" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J36" t="s">
-        <v>88</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -5464,25 +6171,25 @@
         <v>43977</v>
       </c>
       <c r="C38" t="s">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="E38" t="s">
-        <v>1073</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s">
         <v>86</v>
       </c>
       <c r="I38" t="s">
-        <v>606</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s">
         <v>88</v>
@@ -5496,28 +6203,28 @@
         <v>43949</v>
       </c>
       <c r="C39" t="s">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
         <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s">
-        <v>723</v>
+        <v>86</v>
       </c>
       <c r="I39" t="s">
         <v>88</v>
       </c>
       <c r="J39" t="s">
-        <v>724</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -5534,7 +6241,7 @@
         <v>188</v>
       </c>
       <c r="E40" t="s">
-        <v>1074</v>
+        <v>1238</v>
       </c>
       <c r="F40" t="s">
         <v>189</v>
@@ -5546,10 +6253,10 @@
         <v>190</v>
       </c>
       <c r="I40" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J40" t="s">
-        <v>88</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -5566,7 +6273,7 @@
         <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>1075</v>
+        <v>1240</v>
       </c>
       <c r="F41" t="s">
         <v>193</v>
@@ -5578,10 +6285,10 @@
         <v>86</v>
       </c>
       <c r="I41" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J41" t="s">
-        <v>88</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -5598,7 +6305,7 @@
         <v>195</v>
       </c>
       <c r="E42" t="s">
-        <v>1076</v>
+        <v>1241</v>
       </c>
       <c r="F42" t="s">
         <v>196</v>
@@ -5610,10 +6317,10 @@
         <v>86</v>
       </c>
       <c r="I42" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s">
-        <v>88</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -5630,7 +6337,7 @@
         <v>198</v>
       </c>
       <c r="E43" t="s">
-        <v>1077</v>
+        <v>1243</v>
       </c>
       <c r="F43" t="s">
         <v>199</v>
@@ -5642,10 +6349,10 @@
         <v>139</v>
       </c>
       <c r="I43" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s">
-        <v>88</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -5659,10 +6366,10 @@
         <v>200</v>
       </c>
       <c r="D44" t="s">
-        <v>201</v>
+        <v>1244</v>
       </c>
       <c r="E44" t="s">
-        <v>1078</v>
+        <v>1245</v>
       </c>
       <c r="F44" t="s">
         <v>202</v>
@@ -5674,10 +6381,10 @@
         <v>86</v>
       </c>
       <c r="I44" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s">
-        <v>88</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -5691,10 +6398,10 @@
         <v>203</v>
       </c>
       <c r="D45" t="s">
-        <v>204</v>
+        <v>1247</v>
       </c>
       <c r="E45" t="s">
-        <v>1079</v>
+        <v>1248</v>
       </c>
       <c r="F45" t="s">
         <v>205</v>
@@ -5706,10 +6413,10 @@
         <v>86</v>
       </c>
       <c r="I45" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s">
-        <v>88</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -5720,28 +6427,28 @@
         <v>43959</v>
       </c>
       <c r="C46" t="s">
-        <v>635</v>
+        <v>1250</v>
       </c>
       <c r="D46" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E46" t="s">
-        <v>1080</v>
+        <v>1251</v>
       </c>
       <c r="F46" t="s">
-        <v>322</v>
+        <v>1252</v>
       </c>
       <c r="G46" t="s">
-        <v>251</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s">
-        <v>718</v>
+        <v>86</v>
       </c>
       <c r="I46" t="s">
         <v>88</v>
       </c>
       <c r="J46" t="s">
-        <v>750</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -5758,7 +6465,7 @@
         <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>1081</v>
+        <v>1253</v>
       </c>
       <c r="F47" t="s">
         <v>207</v>
@@ -5770,10 +6477,10 @@
         <v>86</v>
       </c>
       <c r="I47" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s">
-        <v>88</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -5790,7 +6497,7 @@
         <v>209</v>
       </c>
       <c r="E48" t="s">
-        <v>1082</v>
+        <v>1254</v>
       </c>
       <c r="F48" t="s">
         <v>210</v>
@@ -5802,10 +6509,10 @@
         <v>95</v>
       </c>
       <c r="I48" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s">
-        <v>88</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -5822,7 +6529,7 @@
         <v>212</v>
       </c>
       <c r="E49" t="s">
-        <v>1083</v>
+        <v>1255</v>
       </c>
       <c r="F49" t="s">
         <v>213</v>
@@ -5834,10 +6541,10 @@
         <v>214</v>
       </c>
       <c r="I49" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J49" t="s">
-        <v>88</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -5848,25 +6555,25 @@
         <v>44011</v>
       </c>
       <c r="C50" t="s">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="D50" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="E50" t="s">
-        <v>1084</v>
+        <v>79</v>
       </c>
       <c r="F50" t="s">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s">
-        <v>219</v>
+        <v>86</v>
       </c>
       <c r="I50" t="s">
-        <v>606</v>
+        <v>88</v>
       </c>
       <c r="J50" t="s">
         <v>88</v>
@@ -5886,7 +6593,7 @@
         <v>221</v>
       </c>
       <c r="E51" t="s">
-        <v>1085</v>
+        <v>1257</v>
       </c>
       <c r="F51" t="s">
         <v>222</v>
@@ -5898,10 +6605,10 @@
         <v>95</v>
       </c>
       <c r="I51" t="s">
-        <v>603</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s">
-        <v>88</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -5918,7 +6625,7 @@
         <v>209</v>
       </c>
       <c r="E52" t="s">
-        <v>1082</v>
+        <v>1254</v>
       </c>
       <c r="F52" t="s">
         <v>210</v>
@@ -5930,10 +6637,10 @@
         <v>95</v>
       </c>
       <c r="I52" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s">
-        <v>88</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -5950,7 +6657,7 @@
         <v>224</v>
       </c>
       <c r="E53" t="s">
-        <v>1086</v>
+        <v>1259</v>
       </c>
       <c r="F53" t="s">
         <v>225</v>
@@ -5962,10 +6669,10 @@
         <v>226</v>
       </c>
       <c r="I53" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J53" t="s">
-        <v>88</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -5976,25 +6683,25 @@
         <v>43977</v>
       </c>
       <c r="C54" t="s">
-        <v>238</v>
+        <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="E54" t="s">
-        <v>1087</v>
+        <v>79</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s">
         <v>86</v>
       </c>
       <c r="I54" t="s">
-        <v>606</v>
+        <v>88</v>
       </c>
       <c r="J54" t="s">
         <v>88</v>
@@ -6014,7 +6721,7 @@
         <v>228</v>
       </c>
       <c r="E55" t="s">
-        <v>1088</v>
+        <v>1260</v>
       </c>
       <c r="F55" t="s">
         <v>229</v>
@@ -6026,10 +6733,10 @@
         <v>230</v>
       </c>
       <c r="I55" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J55" t="s">
-        <v>88</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -6040,28 +6747,28 @@
         <v>43969</v>
       </c>
       <c r="C56" t="s">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="D56" t="s">
         <v>76</v>
       </c>
       <c r="E56" t="s">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s">
-        <v>258</v>
+        <v>86</v>
       </c>
       <c r="I56" t="s">
         <v>88</v>
       </c>
       <c r="J56" t="s">
-        <v>760</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -6075,10 +6782,10 @@
         <v>245</v>
       </c>
       <c r="D57" t="s">
-        <v>246</v>
+        <v>1261</v>
       </c>
       <c r="E57" t="s">
-        <v>1089</v>
+        <v>1262</v>
       </c>
       <c r="F57" t="s">
         <v>247</v>
@@ -6090,10 +6797,10 @@
         <v>248</v>
       </c>
       <c r="I57" t="s">
-        <v>606</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s">
-        <v>88</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -6110,7 +6817,7 @@
         <v>232</v>
       </c>
       <c r="E58" t="s">
-        <v>1090</v>
+        <v>1263</v>
       </c>
       <c r="F58" t="s">
         <v>233</v>
@@ -6122,10 +6829,10 @@
         <v>85</v>
       </c>
       <c r="I58" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="J58" t="s">
-        <v>88</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -6136,28 +6843,28 @@
         <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="D59" t="s">
         <v>76</v>
       </c>
       <c r="E59" t="s">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="F59" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="I59" t="s">
         <v>88</v>
       </c>
       <c r="J59" t="s">
-        <v>764</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
